--- a/data/hotels_by_city/Denver/Denver_shard_277.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_277.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="755">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33447-d83106-Reviews-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-TownePlace-Suites-Denver-WestFederal-Center.h202390.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2189 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r597000589-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>33447</t>
+  </si>
+  <si>
+    <t>83106</t>
+  </si>
+  <si>
+    <t>597000589</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Outstanding Customer Service</t>
+  </si>
+  <si>
+    <t>My wife was staying here for a family function and I was not able to join her. Our anniversary fell during her stay, and I wanted to surprise her with a small treat. I spoke with Amanda at the front desk and asked her if she wouldn't mind sending up some cookies and a note. She was more than happy to help and told me she and Chris would put together something special and make sure my wife got it. Later on that day I got a very happy call from my wife saying there was a plate of chocolate chip cookies wrapped up with a nice red bow and a well done note wishing us a happy anniversary! Thank you both for helping us celebrate even though we were many states apart.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>My wife was staying here for a family function and I was not able to join her. Our anniversary fell during her stay, and I wanted to surprise her with a small treat. I spoke with Amanda at the front desk and asked her if she wouldn't mind sending up some cookies and a note. She was more than happy to help and told me she and Chris would put together something special and make sure my wife got it. Later on that day I got a very happy call from my wife saying there was a plate of chocolate chip cookies wrapped up with a nice red bow and a well done note wishing us a happy anniversary! Thank you both for helping us celebrate even though we were many states apart.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r596869898-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>596869898</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Not at all what I expected</t>
+  </si>
+  <si>
+    <t>First the place is being renovated and the age is showing everywhere. I booked the room over a month in advance and asked for a lower room due to knee surgery: I was placed on the third floor. The people in the room next door cooked the entire time with strong garlic which was overpowering to the point of making everyone nauseous. The breakfast bar was constantly half empty and there was not room enough in the area but for maybe 10 people. Folks were eating in the front lobby due to to the lack of space. There are over 100 rooms and only 2 washers and 3 dryers. The staff is nice but this facility is very substandard and not up to Marriott standards. It was not worth my money.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>First the place is being renovated and the age is showing everywhere. I booked the room over a month in advance and asked for a lower room due to knee surgery: I was placed on the third floor. The people in the room next door cooked the entire time with strong garlic which was overpowering to the point of making everyone nauseous. The breakfast bar was constantly half empty and there was not room enough in the area but for maybe 10 people. Folks were eating in the front lobby due to to the lack of space. There are over 100 rooms and only 2 washers and 3 dryers. The staff is nice but this facility is very substandard and not up to Marriott standards. It was not worth my money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r596857101-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>596857101</t>
+  </si>
+  <si>
+    <t>Clean - very nice staff</t>
+  </si>
+  <si>
+    <t>Stayed for a weekend at redrocks. Offered to put the couple we were with in adjacent suites when they found out we were in a group. Great hot breakfast. Friendly staff. Clean and updated. Pool was nice with grilling deck. Would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stayed for a weekend at redrocks. Offered to put the couple we were with in adjacent suites when they found out we were in a group. Great hot breakfast. Friendly staff. Clean and updated. Pool was nice with grilling deck. Would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r582024376-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>582024376</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Chrstina has a great smile</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at TownPlace Suites.  Christina has a great smile and was very hospitable during my stay.  The room was great also.  I had brought my own means to make breakfast and liked the kitchen.  Good time. I'd love to stay there and visit with Christina some more.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at TownPlace Suites.  Christina has a great smile and was very hospitable during my stay.  The room was great also.  I had brought my own means to make breakfast and liked the kitchen.  Good time. I'd love to stay there and visit with Christina some more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r579327678-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>579327678</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Best Customer Service and clean and Quiet</t>
+  </si>
+  <si>
+    <t>I stay on a weekend.  I called the hotel to announce I may be checking in late.  I made it early and Shantay the front desk attendant immediately welcomed me and mentioned that I was early.  As a Marriott reward member I received a complimentary water with a big Hershey bar.  Shantay arranged 2 cups of ice for me and couldn't have been kinder and attentive.  The weather was nice and guests were cooking around the patio pool area.  Breakfast was a little bland but I would rather have a great bed and quiet that a fancy breakfast.  Stay here, you will be happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded May 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2018</t>
+  </si>
+  <si>
+    <t>I stay on a weekend.  I called the hotel to announce I may be checking in late.  I made it early and Shantay the front desk attendant immediately welcomed me and mentioned that I was early.  As a Marriott reward member I received a complimentary water with a big Hershey bar.  Shantay arranged 2 cups of ice for me and couldn't have been kinder and attentive.  The weather was nice and guests were cooking around the patio pool area.  Breakfast was a little bland but I would rather have a great bed and quiet that a fancy breakfast.  Stay here, you will be happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r578156558-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>578156558</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Comfortable home away from home</t>
+  </si>
+  <si>
+    <t>My room was spotless and had everything I needed for a week's stay. The staff was consistently polite and friendly, and always made sure to ask if I needed anything. Thanks to Julie--who was funny as heck--breakfast was always very good and a little early, which was super convenient for my small group as we had classes first thing in the morning. I chose TownePlace because of good experiences in other cities, and I'm glad I did.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>My room was spotless and had everything I needed for a week's stay. The staff was consistently polite and friendly, and always made sure to ask if I needed anything. Thanks to Julie--who was funny as heck--breakfast was always very good and a little early, which was super convenient for my small group as we had classes first thing in the morning. I chose TownePlace because of good experiences in other cities, and I'm glad I did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r576951438-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>576951438</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>A Pleasant Inconvienance</t>
+  </si>
+  <si>
+    <t>After a long flight, then a long drive I was greeted by Christina and Brandy upon arriving at the hotel. They were both very friendly and personable, it was a nice change to the rest of my day. After i received my keys i went to my room only to find out they were not working. I went back to the front desk and said they did not work. there was no questions (which I love because i did try them both) Brandy quickly rescanned them and apologized for any inconvenience. I went back to the room and those keys did not work. so i returned to the front desk, Amanda (supervisor) came out and identified the problem quickly and resolved the issue. Amanda was very gracious and offered to walk over to test them with me, which was a very nice gesture. the third set of keys worked and i was very happy at hoe responsive, apologetic, and genuinely compassionate all three of the front staff was and i appreciate that. 
+now later on that evening while i was in the room I noticed it was really warm. The window heater/AC was on i could hear it. For some reason it just didn't seem cool so i checked the thermostat, it said it was 74 degrees and i had the room set to 68. So I called the front desk and Brandy was there ready to help. She came...After a long flight, then a long drive I was greeted by Christina and Brandy upon arriving at the hotel. They were both very friendly and personable, it was a nice change to the rest of my day. After i received my keys i went to my room only to find out they were not working. I went back to the front desk and said they did not work. there was no questions (which I love because i did try them both) Brandy quickly rescanned them and apologized for any inconvenience. I went back to the room and those keys did not work. so i returned to the front desk, Amanda (supervisor) came out and identified the problem quickly and resolved the issue. Amanda was very gracious and offered to walk over to test them with me, which was a very nice gesture. the third set of keys worked and i was very happy at hoe responsive, apologetic, and genuinely compassionate all three of the front staff was and i appreciate that. now later on that evening while i was in the room I noticed it was really warm. The window heater/AC was on i could hear it. For some reason it just didn't seem cool so i checked the thermostat, it said it was 74 degrees and i had the room set to 68. So I called the front desk and Brandy was there ready to help. She came to the room to confirm what i had described and had a new room ready to go! i went into the room it had an odd smell i just couldn't get past (I know picky right trust me it wasn't good smell). anyhow she went well out of her way to help and in my opinion way above and beyond the job duties. She made me feel listened to and I appreciate all of her help, the next morning both Amanda and Christina apologized and were very gracious. thank you for the great service and the tremendous patienceMoreShow less</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>After a long flight, then a long drive I was greeted by Christina and Brandy upon arriving at the hotel. They were both very friendly and personable, it was a nice change to the rest of my day. After i received my keys i went to my room only to find out they were not working. I went back to the front desk and said they did not work. there was no questions (which I love because i did try them both) Brandy quickly rescanned them and apologized for any inconvenience. I went back to the room and those keys did not work. so i returned to the front desk, Amanda (supervisor) came out and identified the problem quickly and resolved the issue. Amanda was very gracious and offered to walk over to test them with me, which was a very nice gesture. the third set of keys worked and i was very happy at hoe responsive, apologetic, and genuinely compassionate all three of the front staff was and i appreciate that. 
+now later on that evening while i was in the room I noticed it was really warm. The window heater/AC was on i could hear it. For some reason it just didn't seem cool so i checked the thermostat, it said it was 74 degrees and i had the room set to 68. So I called the front desk and Brandy was there ready to help. She came...After a long flight, then a long drive I was greeted by Christina and Brandy upon arriving at the hotel. They were both very friendly and personable, it was a nice change to the rest of my day. After i received my keys i went to my room only to find out they were not working. I went back to the front desk and said they did not work. there was no questions (which I love because i did try them both) Brandy quickly rescanned them and apologized for any inconvenience. I went back to the room and those keys did not work. so i returned to the front desk, Amanda (supervisor) came out and identified the problem quickly and resolved the issue. Amanda was very gracious and offered to walk over to test them with me, which was a very nice gesture. the third set of keys worked and i was very happy at hoe responsive, apologetic, and genuinely compassionate all three of the front staff was and i appreciate that. now later on that evening while i was in the room I noticed it was really warm. The window heater/AC was on i could hear it. For some reason it just didn't seem cool so i checked the thermostat, it said it was 74 degrees and i had the room set to 68. So I called the front desk and Brandy was there ready to help. She came to the room to confirm what i had described and had a new room ready to go! i went into the room it had an odd smell i just couldn't get past (I know picky right trust me it wasn't good smell). anyhow she went well out of her way to help and in my opinion way above and beyond the job duties. She made me feel listened to and I appreciate all of her help, the next morning both Amanda and Christina apologized and were very gracious. thank you for the great service and the tremendous patienceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r574411958-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>574411958</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>A little extra at this TownePlace Marriott</t>
+  </si>
+  <si>
+    <t>I travel a lot and am a Platinum Marriott member.  Marriott has done a great job at delivering consistency across each and every hotel they own.  No matter what hotel, where it is, Marriott has been very dependable on a consistent experience.  But I do have to say, this Marriott offered a little something extra.  The staff is overly warm and helpful, especially Julie who will serve your morning breakfast.  She is so sweet, inviting and truly wants to make your dining experience 4 star.  If you get a chance, swing down for breakfast in the morning and take a moment to enjoy Julies hospitality.SamMoreShow less</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2018</t>
+  </si>
+  <si>
+    <t>I travel a lot and am a Platinum Marriott member.  Marriott has done a great job at delivering consistency across each and every hotel they own.  No matter what hotel, where it is, Marriott has been very dependable on a consistent experience.  But I do have to say, this Marriott offered a little something extra.  The staff is overly warm and helpful, especially Julie who will serve your morning breakfast.  She is so sweet, inviting and truly wants to make your dining experience 4 star.  If you get a chance, swing down for breakfast in the morning and take a moment to enjoy Julies hospitality.SamMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r573674517-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>573674517</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Hockey weekend</t>
+  </si>
+  <si>
+    <t>Our suite was spacious and comfy.  Had a full kitchen stocked with all the regulars - pots, pans real plates, silverware and glasses.  WiFi was fast and the suite was very clean.  Would have been nice to have a hot tub or a stationary bike in the fitness center.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Our suite was spacious and comfy.  Had a full kitchen stocked with all the regulars - pots, pans real plates, silverware and glasses.  WiFi was fast and the suite was very clean.  Would have been nice to have a hot tub or a stationary bike in the fitness center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r568779137-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>568779137</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Best hotel stay ever!</t>
+  </si>
+  <si>
+    <t>Staff were just all so friendly specially Christina at the front desk. She gave me suggestions where to go and where to eat. She was so helpful. Made our trip memorable. Julie was also very helpful with breakfast every morning MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Staff were just all so friendly specially Christina at the front desk. She gave me suggestions where to go and where to eat. She was so helpful. Made our trip memorable. Julie was also very helpful with breakfast every morning More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r564686081-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>564686081</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Home away from Home!</t>
+  </si>
+  <si>
+    <t>Christina and the staff were absolutely wonderful from the time of check in till my parents left a week later.  They looked after them like they were family.  Great rooms,  accommodations  and as my dad says "The cookies are good too! " Thank you for going above and beyond!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded March 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2018</t>
+  </si>
+  <si>
+    <t>Christina and the staff were absolutely wonderful from the time of check in till my parents left a week later.  They looked after them like they were family.  Great rooms,  accommodations  and as my dad says "The cookies are good too! " Thank you for going above and beyond!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r564044140-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>564044140</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>My recommendations</t>
+  </si>
+  <si>
+    <t>Very nice accommodations at a good price.  Includes a variety of food at the AM buffet also.  Easy check in.  Lovely grounds. Ample free parking spaces.  Nice kitchen area, comfortable bed, couch, and chairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice accommodations at a good price.  Includes a variety of food at the AM buffet also.  Easy check in.  Lovely grounds. Ample free parking spaces.  Nice kitchen area, comfortable bed, couch, and chairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r557822900-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>557822900</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place to stay. Excellent value. </t>
+  </si>
+  <si>
+    <t>We had a 2 bedroom suite. Furnishings were good, room was clean and had everything you’d expect. Price was good value. The only improvement could be to enlarge breakfast room. I’d recommend this place. MoreShow less</t>
+  </si>
+  <si>
+    <t>Amanda G, Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded February 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2018</t>
+  </si>
+  <si>
+    <t>We had a 2 bedroom suite. Furnishings were good, room was clean and had everything you’d expect. Price was good value. The only improvement could be to enlarge breakfast room. I’d recommend this place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r556399663-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>556399663</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>In town for NWSS</t>
+  </si>
+  <si>
+    <t>Nice roomy suite with all the needed ammenities! Dog friendly. The hot breakfast was  nice. The fitness room was modern and clean.  It was easy to access from 6th ave or I-70. I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Amanda G, Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Nice roomy suite with all the needed ammenities! Dog friendly. The hot breakfast was  nice. The fitness room was modern and clean.  It was easy to access from 6th ave or I-70. I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r555290771-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>555290771</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Baseball tournament</t>
+  </si>
+  <si>
+    <t>Nice, good sized room.  I enjoy more space in order to get good rest for the family.  Breakfast was decent.  Quiet location.  Was a good centralized location for baseball .I would definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Amanda G, other at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Nice, good sized room.  I enjoy more space in order to get good rest for the family.  Breakfast was decent.  Quiet location.  Was a good centralized location for baseball .I would definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r530614819-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>530614819</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College grad </t>
+  </si>
+  <si>
+    <t>We brought the whole family, 3 rooms worth, for our daughter's college graduation.  We had a great stay with a staff that was helpful and friendly, and we will stay here again.  The rooms were adequately furnished and clean and overall the hotel was quiet.  This was a great value for the price;  thank you for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>We brought the whole family, 3 rooms worth, for our daughter's college graduation.  We had a great stay with a staff that was helpful and friendly, and we will stay here again.  The rooms were adequately furnished and clean and overall the hotel was quiet.  This was a great value for the price;  thank you for a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r530506316-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>530506316</t>
+  </si>
+  <si>
+    <t>Wedding/Vacation in Denver</t>
+  </si>
+  <si>
+    <t>Front desk was very welcoming and friendly.  They have games available for anyone to use, coffee/tea for all, the welcome lobby is just very cozy and friendly. I called ahead and our room was available a couple hours before we check-in time.  Rooms were very clean. Hotel was right off the highway exit, so easy to find, convenience stores within good location.  The breakfast was great.  During the week they had a good selection, eggs, sausage, bagels, muffins, fresh fruit, yogurts, cereal, oatmeal.  On the weekends, they offered a waffle maker.  I requested turkey sausage and the next day there it was.  There was someone always replenishing the food.  All the hotel staff was super friendly.  Housekeeping greeted you all the time! I would definitely return to this location and recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Front desk was very welcoming and friendly.  They have games available for anyone to use, coffee/tea for all, the welcome lobby is just very cozy and friendly. I called ahead and our room was available a couple hours before we check-in time.  Rooms were very clean. Hotel was right off the highway exit, so easy to find, convenience stores within good location.  The breakfast was great.  During the week they had a good selection, eggs, sausage, bagels, muffins, fresh fruit, yogurts, cereal, oatmeal.  On the weekends, they offered a waffle maker.  I requested turkey sausage and the next day there it was.  There was someone always replenishing the food.  All the hotel staff was super friendly.  Housekeeping greeted you all the time! I would definitely return to this location and recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r520006359-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>520006359</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Thin Walls</t>
+  </si>
+  <si>
+    <t>Overall an average stay. Friendly staff and good breakfast selection. The big downfall is the room noise. The rooms on both sides of us were loud - one with a tv playing all night, while the other had a crying baby.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded September 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2017</t>
+  </si>
+  <si>
+    <t>Overall an average stay. Friendly staff and good breakfast selection. The big downfall is the room noise. The rooms on both sides of us were loud - one with a tv playing all night, while the other had a crying baby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r504620989-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>504620989</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>excellent temporary home</t>
+  </si>
+  <si>
+    <t>The staff were very helpful in accomodating our long-stay needs in an ADA wheelchair-friendly room after discharge from nearby St Anthony Hospital.  Our two dogs were accomodated as well -- they were key to ongoing recovery.  I think of Amanda as our anchor there -- from the initial booking and throughout our stay, she responded to a thousand questions with patience and wisdom.  Christina also provided the friendly support so important to making a hotel home-like.  I would recommend this hotel.  One challenge for someone in a wheelchair was the heavy doors, which did not have automatic openers.  Staff were very helpful there, too, but an upgrade would be beneficial to this hotel with its close relationship to the hospital.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>The staff were very helpful in accomodating our long-stay needs in an ADA wheelchair-friendly room after discharge from nearby St Anthony Hospital.  Our two dogs were accomodated as well -- they were key to ongoing recovery.  I think of Amanda as our anchor there -- from the initial booking and throughout our stay, she responded to a thousand questions with patience and wisdom.  Christina also provided the friendly support so important to making a hotel home-like.  I would recommend this hotel.  One challenge for someone in a wheelchair was the heavy doors, which did not have automatic openers.  Staff were very helpful there, too, but an upgrade would be beneficial to this hotel with its close relationship to the hospital.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r484963436-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>484963436</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Eased the worry while hubby was in St. Anthony Hospital!</t>
+  </si>
+  <si>
+    <t>The hotel works with the families of patients at St. Anthony Hospital. (Only one mile apart!)  They gave me a wonderful rate for three nights while my hubby was in the ICU unit!  Having a nice kitchenette in the room was such an asset.  I slept like a baby knowing how close I was to the hospital and didn't have to worry about being hungry once back in the room; I stocked the fridge!!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Amanda G, Operations Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>The hotel works with the families of patients at St. Anthony Hospital. (Only one mile apart!)  They gave me a wonderful rate for three nights while my hubby was in the ICU unit!  Having a nice kitchenette in the room was such an asset.  I slept like a baby knowing how close I was to the hospital and didn't have to worry about being hungry once back in the room; I stocked the fridge!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r482695947-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>482695947</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granddaughter 1st Birthday </t>
+  </si>
+  <si>
+    <t>Normally stay with family when visiting,  but due to the number of visitors,  we needed a Marriott brand close to Lakewood. A little hard to find, but a nice location. I booked early and received a great rate, only to have a need for a second room a few weeks later but paid 3x the price. Not a way to treat loyal Marriott Customers.  Speaking of... when I tried to add a second room, called hotel, was transferred to national reservation agent who til me to book through the web site. There was nothing she could do. All I wanted to do was add a room close to mine for a price close to mine.  Received a close room, but the price difference for the same room was ridiculous. Marriott needs to work on this instead of price gouging.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amanda G, Sales Coordinator at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Normally stay with family when visiting,  but due to the number of visitors,  we needed a Marriott brand close to Lakewood. A little hard to find, but a nice location. I booked early and received a great rate, only to have a need for a second room a few weeks later but paid 3x the price. Not a way to treat loyal Marriott Customers.  Speaking of... when I tried to add a second room, called hotel, was transferred to national reservation agent who til me to book through the web site. There was nothing she could do. All I wanted to do was add a room close to mine for a price close to mine.  Received a close room, but the price difference for the same room was ridiculous. Marriott needs to work on this instead of price gouging.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r463325059-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>463325059</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Front Desk Exceptional</t>
+  </si>
+  <si>
+    <t>Will at the front desk on Saturday night, 2/25/2017 was amazing.  Extremely helpful.  Nice disposition.  The room was very nice and spacious.  Breakfast was decent.  The hotel was clean and easy to find.  Centrally located.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Amanda G, Sales Coordinator at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Will at the front desk on Saturday night, 2/25/2017 was amazing.  Extremely helpful.  Nice disposition.  The room was very nice and spacious.  Breakfast was decent.  The hotel was clean and easy to find.  Centrally located.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r462343109-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>462343109</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>If I have to be away from home this is the best place to be</t>
+  </si>
+  <si>
+    <t>Very nice place it's always really clean and the Staff is priceless. They are very accommodating and friendly. The grounds are clean and there's a lot of food and entertainment choices close by. If I have to be away from home this is the best place to beMoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice place it's always really clean and the Staff is priceless. They are very accommodating and friendly. The grounds are clean and there's a lot of food and entertainment choices close by. If I have to be away from home this is the best place to beMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r460108075-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>460108075</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Convenient to I70</t>
+  </si>
+  <si>
+    <t>We stopped for the night as we were on the way to Vail, Colorado.  It is convenient to I70.  The hotel was clean and breakfast was adequate.  We are always loyal to Marriott hotels and appreciate that they have reasonably priced choices as we drive thru the USA.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2017</t>
+  </si>
+  <si>
+    <t>We stopped for the night as we were on the way to Vail, Colorado.  It is convenient to I70.  The hotel was clean and breakfast was adequate.  We are always loyal to Marriott hotels and appreciate that they have reasonably priced choices as we drive thru the USA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r457687952-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>457687952</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>All the employees were super friendly and the location is perfect for Denver and the ski resorts.  My room was great with a refrigerator, stove/oven, microwave, and plenty of room.  And the complimentary breakfast was amazing.  Great place to relax and unwind.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>All the employees were super friendly and the location is perfect for Denver and the ski resorts.  My room was great with a refrigerator, stove/oven, microwave, and plenty of room.  And the complimentary breakfast was amazing.  Great place to relax and unwind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r456716394-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>456716394</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>JoanneBerr</t>
+  </si>
+  <si>
+    <t>This is the best hotel that I have been to in a long time!The customer service was outstanding! The cleanliness was great!The breakfast was better than 99 percent out there.All in all, This was a terrific hotel!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded February 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2017</t>
+  </si>
+  <si>
+    <t>This is the best hotel that I have been to in a long time!The customer service was outstanding! The cleanliness was great!The breakfast was better than 99 percent out there.All in all, This was a terrific hotel!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r454743699-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>454743699</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Not Sure What to Think</t>
+  </si>
+  <si>
+    <t>The setup for this hotel is very different than most TownPlace's I have stayed at before, there were two separate buildings of rooms but they were not connected, and the parking lot did not seem large enough to accommodate everyone. Check in was pretty smooth but lobby is very small, thought it was somewhat different that you could not access the elevator or rooms from the lobby without having to go through key access doors. Rooms were ok but I was not a fan of the layout, internet worked pretty good, TV was a different story. Staff was very nice and friendly. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>The setup for this hotel is very different than most TownPlace's I have stayed at before, there were two separate buildings of rooms but they were not connected, and the parking lot did not seem large enough to accommodate everyone. Check in was pretty smooth but lobby is very small, thought it was somewhat different that you could not access the elevator or rooms from the lobby without having to go through key access doors. Rooms were ok but I was not a fan of the layout, internet worked pretty good, TV was a different story. Staff was very nice and friendly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r449398755-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>449398755</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Good location for slopes, a bit dated</t>
+  </si>
+  <si>
+    <t>Spent 5 days at this hotel between Christmas and New Years.  The good is that the hotel has some large rooms (2 bedrooms) with some reasonable prices and is not a bad place to stay as a launching point for the front range.  Front desk was responsive and polite.  The bad is that the facility is a bit run down, toilet took a day or so to get fixed.  There are a couple of restaurants nearby, but for being in a large city, you can really feel like you are alone at night when walk around in this area.  Walls were also a bit on the thin side but not terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Spent 5 days at this hotel between Christmas and New Years.  The good is that the hotel has some large rooms (2 bedrooms) with some reasonable prices and is not a bad place to stay as a launching point for the front range.  Front desk was responsive and polite.  The bad is that the facility is a bit run down, toilet took a day or so to get fixed.  There are a couple of restaurants nearby, but for being in a large city, you can really feel like you are alone at night when walk around in this area.  Walls were also a bit on the thin side but not terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r447496750-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>447496750</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Keep Expectations Low</t>
+  </si>
+  <si>
+    <t>We are a Marriott loyal family staying across brands around the globe.  We don't expect lavish accommodations from TownePlace properties.  However we expect them to be clean and in good repair.  Not the case here.MoreShow less</t>
+  </si>
+  <si>
+    <t>We are a Marriott loyal family staying across brands around the globe.  We don't expect lavish accommodations from TownePlace properties.  However we expect them to be clean and in good repair.  Not the case here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r440744660-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>440744660</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheaper than downtown. Not necessarily better. </t>
+  </si>
+  <si>
+    <t>OK the first time I stay here thought it was just okay. Second time we got the suite and wow!  There are a few cool places to eat around here. A fantastic ice cream place too that we love ❤️. Magills world of ice cream!If you stay here get the suite!  For around $20 it is worth it for kitchen and separate room!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>OK the first time I stay here thought it was just okay. Second time we got the suite and wow!  There are a few cool places to eat around here. A fantastic ice cream place too that we love ❤️. Magills world of ice cream!If you stay here get the suite!  For around $20 it is worth it for kitchen and separate room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r423929343-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>423929343</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>Thank you Oliver for an near excellent Stay</t>
+  </si>
+  <si>
+    <t>We checked in at 7:30 pm and asked Oliver to change our one night stay to a two night stay. He offered us a two bedroom suite in the third floor as an upgrade for a Platinum Member. Oliver was most friendly and efficient at checking us in.Our suite was on the third floor, and there was a bit of traffic noise from the windows on the lounge side. The suite was also very spacious, and well layout, almost a home from home.Housekeeping standard was excellent, everything was very, very clean. We also know the condition was not a once off as we stayed 2 nights. Compliments to the house keeper.We were able to sleep well on both nights, using just the main bedroom.Breakfast was typical TownHouse standard, although the breakfast room was very small, we had breakfast at the tables near Reception on the first morning. And we took some cereal and yogurt to our room the second morning.The couple of downsides for our stay was problems getting wifi connection using our room no. and name; plus, there were several steps to get up to the entrance door nearest the elevator to our block of suites. Not so good with heavy bags.A near perfect hotel stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>We checked in at 7:30 pm and asked Oliver to change our one night stay to a two night stay. He offered us a two bedroom suite in the third floor as an upgrade for a Platinum Member. Oliver was most friendly and efficient at checking us in.Our suite was on the third floor, and there was a bit of traffic noise from the windows on the lounge side. The suite was also very spacious, and well layout, almost a home from home.Housekeeping standard was excellent, everything was very, very clean. We also know the condition was not a once off as we stayed 2 nights. Compliments to the house keeper.We were able to sleep well on both nights, using just the main bedroom.Breakfast was typical TownHouse standard, although the breakfast room was very small, we had breakfast at the tables near Reception on the first morning. And we took some cereal and yogurt to our room the second morning.The couple of downsides for our stay was problems getting wifi connection using our room no. and name; plus, there were several steps to get up to the entrance door nearest the elevator to our block of suites. Not so good with heavy bags.A near perfect hotel stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r419297243-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>419297243</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Always friendly and reliable</t>
+  </si>
+  <si>
+    <t>We have used Townplace Suites Denver West a number of times over the past 15 years. This a great location for anyone wanting to be in the Golden, Lakewood or the Denver Federal Center. A friendly place thats both clean and reasonable. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>We have used Townplace Suites Denver West a number of times over the past 15 years. This a great location for anyone wanting to be in the Golden, Lakewood or the Denver Federal Center. A friendly place thats both clean and reasonable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r407528827-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>407528827</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Family 2 bedroom unit was perfect answer to our needs</t>
+  </si>
+  <si>
+    <t>We met family in Denver to go to REDROCKS for a concert. Fast easy drive to Redrocks. The room was great for two couples and our son who slept on the pull our couch. It has a full kitchen, great local restuarant deliveries. Great location near a huge mall. Simms Steak house is within walking distance. Nice selection at the free breakfast. Great helpful staff. We did see a few missed crumbs in the kitchen left by housekeeping-not a big deal though. Lots of parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>We met family in Denver to go to REDROCKS for a concert. Fast easy drive to Redrocks. The room was great for two couples and our son who slept on the pull our couch. It has a full kitchen, great local restuarant deliveries. Great location near a huge mall. Simms Steak house is within walking distance. Nice selection at the free breakfast. Great helpful staff. We did see a few missed crumbs in the kitchen left by housekeeping-not a big deal though. Lots of parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r397390699-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>397390699</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Wonderful staff</t>
+  </si>
+  <si>
+    <t>Stayed here for a few days during a relocation. Not high end and small. Rooms are clean and little kitchenette is very convenient. Breakfast served daily and not bad. Room service is limited. Best thing about this place is Oliver the afternoon-night clerk. He is jack of all trades and very nice and accommodating. If you have a problem he is quick to respond. His customer service is excellent. Makes you feel like he actually cares that you have a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for a few days during a relocation. Not high end and small. Rooms are clean and little kitchenette is very convenient. Breakfast served daily and not bad. Room service is limited. Best thing about this place is Oliver the afternoon-night clerk. He is jack of all trades and very nice and accommodating. If you have a problem he is quick to respond. His customer service is excellent. Makes you feel like he actually cares that you have a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r397092040-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>397092040</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>good location to morrision speedway</t>
+  </si>
+  <si>
+    <t>Nice staff, clean rooms, good breakfast.  Air con could be quieter.  Staff were very helpful with suggestions of local area and when account was queried quick to fix it.  Plenty of parking available.  Did early checkout and no problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice staff, clean rooms, good breakfast.  Air con could be quieter.  Staff were very helpful with suggestions of local area and when account was queried quick to fix it.  Plenty of parking available.  Did early checkout and no problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r394533579-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>394533579</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Next family vacation destination</t>
+  </si>
+  <si>
+    <t>Okay, so I probably won't plan a family vacation around a hotel, but if I wasn't here for work, this would be a perfect spot to stay with kids. The continental breakfast is average, but the frig, micro, stove/oven, pots/pans and dishes (clean dishes) would really make it easy for a family to enjoy a nice vacation without the hassle and expense of dining out. It's also very clean and very comfortable. There is an outdoor pool which looks really nice, but the rain has kept me away. Staff is amazing... I had a light burn out, they were there in a flash! I also had management stop by to check up on my satisfaction about room service - sounded like they may have had a complaint, but my room was fine and they were right on top of things. I just really felt like they actually cared about my stay; can't say that do a lot of hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Okay, so I probably won't plan a family vacation around a hotel, but if I wasn't here for work, this would be a perfect spot to stay with kids. The continental breakfast is average, but the frig, micro, stove/oven, pots/pans and dishes (clean dishes) would really make it easy for a family to enjoy a nice vacation without the hassle and expense of dining out. It's also very clean and very comfortable. There is an outdoor pool which looks really nice, but the rain has kept me away. Staff is amazing... I had a light burn out, they were there in a flash! I also had management stop by to check up on my satisfaction about room service - sounded like they may have had a complaint, but my room was fine and they were right on top of things. I just really felt like they actually cared about my stay; can't say that do a lot of hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r390084819-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>390084819</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Great Staff / Ready to Decompose Hotel</t>
+  </si>
+  <si>
+    <t>Close, if not the worst Marriott property I have stayed in.  This place is not going to pass inspection and should prepare itself for a rebadge to a lower brand.  The hotel is dirty and stained.  Recommend.  Avoid this hotel and upgrade to a Super 8 Motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Close, if not the worst Marriott property I have stayed in.  This place is not going to pass inspection and should prepare itself for a rebadge to a lower brand.  The hotel is dirty and stained.  Recommend.  Avoid this hotel and upgrade to a Super 8 Motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r386447422-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>386447422</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Great staff; poor location; very noisy</t>
+  </si>
+  <si>
+    <t>Marriott properties are my preferred accommodations when I travel. You always know what you are going to get. The property was clean and the staff was great, however, the location is very noisy as traffic was loud and the walls are paper thin. We had a rowdy group above us which did not allow a good rest. The breakfast was less than desirable as the frozen sausage patties were low grade and the fried eggs were mass produced and probably previously frozen. I will not stay at this location again but will always remain loyal to Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Marriott properties are my preferred accommodations when I travel. You always know what you are going to get. The property was clean and the staff was great, however, the location is very noisy as traffic was loud and the walls are paper thin. We had a rowdy group above us which did not allow a good rest. The breakfast was less than desirable as the frozen sausage patties were low grade and the fried eggs were mass produced and probably previously frozen. I will not stay at this location again but will always remain loyal to Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r385969056-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>385969056</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>100 degrees and the a/c wasn't working</t>
+  </si>
+  <si>
+    <t>When I checked in I told them my room was really hot, front desk came down and said it would be cool by the time I got back. I should have known better...I was changing rooms at 1 a.m. To a crappy room. Not even an offer of a free cup of coffee....?! I stayed there to get some sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>When I checked in I told them my room was really hot, front desk came down and said it would be cool by the time I got back. I should have known better...I was changing rooms at 1 a.m. To a crappy room. Not even an offer of a free cup of coffee....?! I stayed there to get some sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r370270028-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>370270028</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Pretty Nice, Had Issues</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights and were tired when we checked in.  We turned on the tv &amp; got nothing so we called the office &amp; they came right over, said the remote must need batteries.  When they came back it was obvious the remote didn't work so they went to get another one.  Meanwhile we saw there was no dishwashing detergent and no kitchen towel or washcloth,  &amp; I went to the office for those things.  The person returned fairly soon with a remote that worked and apologized.  There was no tv guide so they brought one.The room was comfortable, quiet &amp; clean.  The breakfast left something  to be desired.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights and were tired when we checked in.  We turned on the tv &amp; got nothing so we called the office &amp; they came right over, said the remote must need batteries.  When they came back it was obvious the remote didn't work so they went to get another one.  Meanwhile we saw there was no dishwashing detergent and no kitchen towel or washcloth,  &amp; I went to the office for those things.  The person returned fairly soon with a remote that worked and apologized.  There was no tv guide so they brought one.The room was comfortable, quiet &amp; clean.  The breakfast left something  to be desired.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r356022181-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>356022181</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Great hotel with a great price!</t>
+  </si>
+  <si>
+    <t>I really enjoyed my week stay at this property. The entire staff is warm, welcoming and helpful. They went above and beyond with our team's stay and I really like their wall board that shows the businesses in the area. It's nice to see options. Julie, who runs the breakfast area runs a really nice organized and fresh breakfast with always wearing a smile on her face!  Ailene and Oliver were the best at front desk!! Right around the corner from Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>I really enjoyed my week stay at this property. The entire staff is warm, welcoming and helpful. They went above and beyond with our team's stay and I really like their wall board that shows the businesses in the area. It's nice to see options. Julie, who runs the breakfast area runs a really nice organized and fresh breakfast with always wearing a smile on her face!  Ailene and Oliver were the best at front desk!! Right around the corner from Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r355616761-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>355616761</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Worst hot breakfast</t>
+  </si>
+  <si>
+    <t>Basically build-your-own Egg McMuffin: flattened industrial fried egg and greasy sausage. Never varies. Paper-thin walls, cooking sets off smoke detector due to lack of exhaust fan, sheets and blankets too short for trampoline-like bed, and cleaning only once a week unless you ask. Fitness center has two machines plus weights. Friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Rory C, Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Basically build-your-own Egg McMuffin: flattened industrial fried egg and greasy sausage. Never varies. Paper-thin walls, cooking sets off smoke detector due to lack of exhaust fan, sheets and blankets too short for trampoline-like bed, and cleaning only once a week unless you ask. Fitness center has two machines plus weights. Friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r348255787-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>348255787</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Good Value, Great Location</t>
+  </si>
+  <si>
+    <t>We only stayed here one night after a Rockies game on our road trip to California, but we were not disappointed. Lying west of the Denver metroplex and convenient to many area attractions, such as Coors Brewery, we didn't have to deal with morning commute traffic in our way out of town. Staff is friendly, rooms are rather spacious, and the complimentary breakfast is impressive for this tier of the lodging industry. It was a nice deviation from Springhill or Residence Inn Marriott brands.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2016</t>
+  </si>
+  <si>
+    <t>We only stayed here one night after a Rockies game on our road trip to California, but we were not disappointed. Lying west of the Denver metroplex and convenient to many area attractions, such as Coors Brewery, we didn't have to deal with morning commute traffic in our way out of town. Staff is friendly, rooms are rather spacious, and the complimentary breakfast is impressive for this tier of the lodging industry. It was a nice deviation from Springhill or Residence Inn Marriott brands.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r348041925-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>348041925</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>OK Property, Weird location.</t>
+  </si>
+  <si>
+    <t>Quick 1-night stay for work.  Went to check in early and freshen up before the client meeting.  Instead I and waited and waited and waited.  Ended up leaving and checking in after the meeting.  Not the end of the world but waited later on as well!  Room was fine.  Pretty typical of TownPlace properties.Location is funky.  Entrance is tucked away, a block and a half from the road where you actually see the hotel.  Pretty confusing.Breakfast was decent.  Not sure if they ran out of bacon or if the over boisterous Dad in the dining area stole it all and then made everyone aware of it.Not sure I'd come back here, but price was decent for the area.  That being said, it was no better than the TPS I stayed at across town for $40/night less.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Quick 1-night stay for work.  Went to check in early and freshen up before the client meeting.  Instead I and waited and waited and waited.  Ended up leaving and checking in after the meeting.  Not the end of the world but waited later on as well!  Room was fine.  Pretty typical of TownPlace properties.Location is funky.  Entrance is tucked away, a block and a half from the road where you actually see the hotel.  Pretty confusing.Breakfast was decent.  Not sure if they ran out of bacon or if the over boisterous Dad in the dining area stole it all and then made everyone aware of it.Not sure I'd come back here, but price was decent for the area.  That being said, it was no better than the TPS I stayed at across town for $40/night less.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r347739163-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>347739163</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice staff but hotel needs a lot of work </t>
+  </si>
+  <si>
+    <t>They need to renovate and fix a lot of broken things.  For example in my room several of the lights were out. In addition the couch and floors seemed very dirty.   I agree with other reviews on this issue.  In addition the washer machines do not work very well I had to run the machine twice to get all the soap out. Also housekeeping leaves a lot to be desired I put my own dishes in the dishwasher which is what I understand is required in this hotel but they did not clean the bathroom they did not clean the toilet they did not clean the sink they didn't clean anything I'm surprised even made the bed and this is for $150 a night and by the way that's a government rate discount it so if you think this is a great deal think again go to a different hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>They need to renovate and fix a lot of broken things.  For example in my room several of the lights were out. In addition the couch and floors seemed very dirty.   I agree with other reviews on this issue.  In addition the washer machines do not work very well I had to run the machine twice to get all the soap out. Also housekeeping leaves a lot to be desired I put my own dishes in the dishwasher which is what I understand is required in this hotel but they did not clean the bathroom they did not clean the toilet they did not clean the sink they didn't clean anything I'm surprised even made the bed and this is for $150 a night and by the way that's a government rate discount it so if you think this is a great deal think again go to a different hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r335741633-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>335741633</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Good, But In Need Of Some Maintenance</t>
+  </si>
+  <si>
+    <t>I was pleased, overall, with this stay.  My wife and I stayed for one night during a road trip between LA and Minneapolis.  The bed was comfortable, shower worked well, and the room was clean and comfortable, however, the shower drain was a bit slow and the HVAC unit looked like it had been hit by a car.  The cover was knocked off and wouldn't reattach, and the unit itself was so loud that I was concerned it wasn't safe and turned it off for the night.  We got in late and I didn't want to have the hassle of moving to a different room.  Staff was notified of the problem when we checked out in the morning, so hopefully it was fixed.Breakfast was good with a lot of options including eggs, sausage, waffles, pastries, fruit, cereal, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>I was pleased, overall, with this stay.  My wife and I stayed for one night during a road trip between LA and Minneapolis.  The bed was comfortable, shower worked well, and the room was clean and comfortable, however, the shower drain was a bit slow and the HVAC unit looked like it had been hit by a car.  The cover was knocked off and wouldn't reattach, and the unit itself was so loud that I was concerned it wasn't safe and turned it off for the night.  We got in late and I didn't want to have the hassle of moving to a different room.  Staff was notified of the problem when we checked out in the morning, so hopefully it was fixed.Breakfast was good with a lot of options including eggs, sausage, waffles, pastries, fruit, cereal, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r332181607-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>332181607</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Husbands Favorite Hotel in Lakewood</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights. The room was comfortable. The location is good. The pool is summer only. The breakfast was good. The rooms were clean and the showers are great. The linens and towels are good. Wifi is good and free.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights. The room was comfortable. The location is good. The pool is summer only. The breakfast was good. The rooms were clean and the showers are great. The linens and towels are good. Wifi is good and free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r324750250-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>324750250</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Not for Business Travelers</t>
+  </si>
+  <si>
+    <t>I stayed here for business based on the reviews and that it is a Marriott product but it was not what I expected! It is not really clean, the counter surfaces in the room are clean but the tops of light fixtures and door knobs are grimy. The furniture is dated and dirty - I wouldn't sit on the sofa.  The toilet in my room flooded two days in a row and the faucet in the bathroom leaked constantly. The second night there was a domestic dispute with the police being called. Even the sofas in the main entry are dingy and the pillows stained. The staff is nice and accomodating and they do offer a very basic breakfast with very watered-down coffee. But all-in-all, this is not a place for business or discriminating travelers and giving it two stars is being generous.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded November 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for business based on the reviews and that it is a Marriott product but it was not what I expected! It is not really clean, the counter surfaces in the room are clean but the tops of light fixtures and door knobs are grimy. The furniture is dated and dirty - I wouldn't sit on the sofa.  The toilet in my room flooded two days in a row and the faucet in the bathroom leaked constantly. The second night there was a domestic dispute with the police being called. Even the sofas in the main entry are dingy and the pillows stained. The staff is nice and accomodating and they do offer a very basic breakfast with very watered-down coffee. But all-in-all, this is not a place for business or discriminating travelers and giving it two stars is being generous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r315240085-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>315240085</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Nice Place, Great Location</t>
+  </si>
+  <si>
+    <t>Used this as our home base for traveling around areas west of Denver.  Room was very comfortable, with a small well equipped kitchen.  Buffet breakfast was average and only problem was that there were few tables.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Used this as our home base for traveling around areas west of Denver.  Room was very comfortable, with a small well equipped kitchen.  Buffet breakfast was average and only problem was that there were few tables.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r314540346-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>314540346</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>This was our first experience with TownePlace Suites, and it didn't quite live up to expectation.  We selected it for the location and Marriott brand.  The kitchen was larger that I envisioned and cordoned off from the rest of the room which made the room feel smaller and more cramped than I expected.  It was nicely furnished and the property seemed well maintained.  We did have a malfunction with our air conditioning unit on the first night.  Management responded promptly and maintenance arrived quickly.  The gentleman was a little condescending and did make some adjustments.  When we returned to the room at the end of the 2nd day, the a/c was not working at all.  Again, management responded promptly and was very apologetic, but the only solution was to move to another room.  The morning breakfast was problematic the first two mornings.  The space allocated for breakfast is way too small with too little seating.  The only coffee is located in the lobby.  Furniture arrangement crowded the serving stations, and the low ceiling and tile floors magnified noise.  On the second morning, food for the breakfast was in short supply.  The breakfast attendant was stressed because they were out of eggs.  There were cases of fruit and cereal that had been delivered that was unpacked and stored while guests were trying to eat.  We were there over a weekend when there was a large gathering of wedding guests there, too....This was our first experience with TownePlace Suites, and it didn't quite live up to expectation.  We selected it for the location and Marriott brand.  The kitchen was larger that I envisioned and cordoned off from the rest of the room which made the room feel smaller and more cramped than I expected.  It was nicely furnished and the property seemed well maintained.  We did have a malfunction with our air conditioning unit on the first night.  Management responded promptly and maintenance arrived quickly.  The gentleman was a little condescending and did make some adjustments.  When we returned to the room at the end of the 2nd day, the a/c was not working at all.  Again, management responded promptly and was very apologetic, but the only solution was to move to another room.  The morning breakfast was problematic the first two mornings.  The space allocated for breakfast is way too small with too little seating.  The only coffee is located in the lobby.  Furniture arrangement crowded the serving stations, and the low ceiling and tile floors magnified noise.  On the second morning, food for the breakfast was in short supply.  The breakfast attendant was stressed because they were out of eggs.  There were cases of fruit and cereal that had been delivered that was unpacked and stored while guests were trying to eat.  We were there over a weekend when there was a large gathering of wedding guests there, too.  Such a large gathering of enthusiastic family and friends added to noise levels throughout the property.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>This was our first experience with TownePlace Suites, and it didn't quite live up to expectation.  We selected it for the location and Marriott brand.  The kitchen was larger that I envisioned and cordoned off from the rest of the room which made the room feel smaller and more cramped than I expected.  It was nicely furnished and the property seemed well maintained.  We did have a malfunction with our air conditioning unit on the first night.  Management responded promptly and maintenance arrived quickly.  The gentleman was a little condescending and did make some adjustments.  When we returned to the room at the end of the 2nd day, the a/c was not working at all.  Again, management responded promptly and was very apologetic, but the only solution was to move to another room.  The morning breakfast was problematic the first two mornings.  The space allocated for breakfast is way too small with too little seating.  The only coffee is located in the lobby.  Furniture arrangement crowded the serving stations, and the low ceiling and tile floors magnified noise.  On the second morning, food for the breakfast was in short supply.  The breakfast attendant was stressed because they were out of eggs.  There were cases of fruit and cereal that had been delivered that was unpacked and stored while guests were trying to eat.  We were there over a weekend when there was a large gathering of wedding guests there, too....This was our first experience with TownePlace Suites, and it didn't quite live up to expectation.  We selected it for the location and Marriott brand.  The kitchen was larger that I envisioned and cordoned off from the rest of the room which made the room feel smaller and more cramped than I expected.  It was nicely furnished and the property seemed well maintained.  We did have a malfunction with our air conditioning unit on the first night.  Management responded promptly and maintenance arrived quickly.  The gentleman was a little condescending and did make some adjustments.  When we returned to the room at the end of the 2nd day, the a/c was not working at all.  Again, management responded promptly and was very apologetic, but the only solution was to move to another room.  The morning breakfast was problematic the first two mornings.  The space allocated for breakfast is way too small with too little seating.  The only coffee is located in the lobby.  Furniture arrangement crowded the serving stations, and the low ceiling and tile floors magnified noise.  On the second morning, food for the breakfast was in short supply.  The breakfast attendant was stressed because they were out of eggs.  There were cases of fruit and cereal that had been delivered that was unpacked and stored while guests were trying to eat.  We were there over a weekend when there was a large gathering of wedding guests there, too.  Such a large gathering of enthusiastic family and friends added to noise levels throughout the property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r303544151-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>303544151</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Good place close to Red Rocks Amphitheatre</t>
+  </si>
+  <si>
+    <t>We were looking for a Marriott close to Red Rocks and this one was about 7 miles away.  Good clean room with the service you expect and the standard breakfast.  Friendly check in and got us feather pillows when asked.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded August 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2015</t>
+  </si>
+  <si>
+    <t>We were looking for a Marriott close to Red Rocks and this one was about 7 miles away.  Good clean room with the service you expect and the standard breakfast.  Friendly check in and got us feather pillows when asked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r287607066-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>287607066</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Great hotel stay</t>
+  </si>
+  <si>
+    <t>This hotel has a lot of things to offer.  Great location to denver (10 min), great location for a show at red rocks (15 min), easy on and off highway.The staff at this hotel was so friendly and helpful.  Check in and out was quick.The room was a wonderful size and the ac was very cold.  All rooms are suites I believe and have a full kitchen and small living room.  I love the set up because one person can watch tv and another person can be in the bed without seeing it.  The bathroom was small but had everything you needed, good hot water and pressure.  My only complaint is the hard springy mattress.  Not very comfortable. The pillows were fine.The breakfast lady went out of her way to show us where everything was and made us feel comfortable.  I do wish they had fruit, that was the only thing missing.  They had make your own egg sandwiches, waffles, yogurt, oatmeal, cereal, juice and really good coffee!  I believe the coffee was available all day.  Got to love free breakfast.I would not hesitate to stay here again.(We did not use the pool but it looked cute and clean)MoreShow less</t>
+  </si>
+  <si>
+    <t>Rory C, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>This hotel has a lot of things to offer.  Great location to denver (10 min), great location for a show at red rocks (15 min), easy on and off highway.The staff at this hotel was so friendly and helpful.  Check in and out was quick.The room was a wonderful size and the ac was very cold.  All rooms are suites I believe and have a full kitchen and small living room.  I love the set up because one person can watch tv and another person can be in the bed without seeing it.  The bathroom was small but had everything you needed, good hot water and pressure.  My only complaint is the hard springy mattress.  Not very comfortable. The pillows were fine.The breakfast lady went out of her way to show us where everything was and made us feel comfortable.  I do wish they had fruit, that was the only thing missing.  They had make your own egg sandwiches, waffles, yogurt, oatmeal, cereal, juice and really good coffee!  I believe the coffee was available all day.  Got to love free breakfast.I would not hesitate to stay here again.(We did not use the pool but it looked cute and clean)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r282873059-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>282873059</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>2015 Friends Reunion</t>
+  </si>
+  <si>
+    <t>This hotel is a mid-priced suites hotel, so I'm not rating a resort.  The hotel personnel were very pleasant and helpful, particularly the lady in the dinning area.  The hot food changed daily (we were there 3 mornings) and was very good.  The rooms were clean and comfortable.  We had a full kitchen with a dining table that allowed our group to socialize comfortably.  The beds were surprisingly comfortable for our old bodies.  There was a TV in every bedroom and in the living area.  Everything functioned as expected.  We had 2 two bedroom suites and 1 single room suite (there were five of us all over 70 years of age).We all agreed that we would gladly return to this hotel if we were to gather in the Denver area again.  We choose this hotel because breakfast and parking were included in the price while the hotels in downtown Denver generally did not include these items free.  We were only 15 minutes west of downtown Denver and centrally located to the mountains and Rocky Mountain National Park.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This hotel is a mid-priced suites hotel, so I'm not rating a resort.  The hotel personnel were very pleasant and helpful, particularly the lady in the dinning area.  The hot food changed daily (we were there 3 mornings) and was very good.  The rooms were clean and comfortable.  We had a full kitchen with a dining table that allowed our group to socialize comfortably.  The beds were surprisingly comfortable for our old bodies.  There was a TV in every bedroom and in the living area.  Everything functioned as expected.  We had 2 two bedroom suites and 1 single room suite (there were five of us all over 70 years of age).We all agreed that we would gladly return to this hotel if we were to gather in the Denver area again.  We choose this hotel because breakfast and parking were included in the price while the hotels in downtown Denver generally did not include these items free.  We were only 15 minutes west of downtown Denver and centrally located to the mountains and Rocky Mountain National Park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r279349131-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>279349131</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Weekend in Denver area</t>
+  </si>
+  <si>
+    <t>This hotel was conveniently located for us since we were visiting downtown Golden and downtown Denver.  The suite was very nice and the staff was friendly and helpful.  Rachel H at the counter was especially helpful and was able to recommend the best way to get downtown and took extra time to assist us in riding the west line downtown. Without her assistance we may not have had the courage to try the RTD.  We are so glad we did and avoided driving in dowtown Denver for a concert we attended.  We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was conveniently located for us since we were visiting downtown Golden and downtown Denver.  The suite was very nice and the staff was friendly and helpful.  Rachel H at the counter was especially helpful and was able to recommend the best way to get downtown and took extra time to assist us in riding the west line downtown. Without her assistance we may not have had the courage to try the RTD.  We are so glad we did and avoided driving in dowtown Denver for a concert we attended.  We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r254512591-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>254512591</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>Spacious, Clean, QUIET, Safe</t>
+  </si>
+  <si>
+    <t>Found this gem after nearly a 3-hour online search, two days before coming for a Valentine surprise weekend.  You wouldn't think that would be hard for Denver or the surrounding area, but it was a challenge!  The suites are built to blend in with the surrounding residential community.  Was pleasantly surprised by the suite itself. . . clean and tastefully decorated.  All staff were helpfui and pleasant.  The location is perfectly situated for car travel (close to major blvds. that connect into downtown Denver, Golden,  I-70 , or I-25) or access to the Light Rail (Oak Street Station). Though located by West/Federal areas, it was only a 10-minute drive to relatives located by Sloan's Lake.  Because of the short stay for a family wedding, we didn't take full advantage of the kitchen facilities within the suite itself, but I can see where a family or longer-stay business person might make use of it and save on dining out.  They also have one of the BEST continential breakfasts that go well beyond just cold cereal.  I would definitely stay here again and recommend this to anyone needing a spacious, clean, and QUIET stay in the Denver-Golden area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Edmond M, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Found this gem after nearly a 3-hour online search, two days before coming for a Valentine surprise weekend.  You wouldn't think that would be hard for Denver or the surrounding area, but it was a challenge!  The suites are built to blend in with the surrounding residential community.  Was pleasantly surprised by the suite itself. . . clean and tastefully decorated.  All staff were helpfui and pleasant.  The location is perfectly situated for car travel (close to major blvds. that connect into downtown Denver, Golden,  I-70 , or I-25) or access to the Light Rail (Oak Street Station). Though located by West/Federal areas, it was only a 10-minute drive to relatives located by Sloan's Lake.  Because of the short stay for a family wedding, we didn't take full advantage of the kitchen facilities within the suite itself, but I can see where a family or longer-stay business person might make use of it and save on dining out.  They also have one of the BEST continential breakfasts that go well beyond just cold cereal.  I would definitely stay here again and recommend this to anyone needing a spacious, clean, and QUIET stay in the Denver-Golden area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r253539965-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>253539965</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel in West Denver!</t>
+  </si>
+  <si>
+    <t>I stayed 2 separate nights at the TownePlace while on business Jan 30 and again Feb 4.  After driving 3 1/2 hours from Kansas the warm welcoming greeting from Jessica at the front desk was much appreciated.  At check in she was able to recommend an outstanding local restaurant and took time to chat about the local ski scene. She was also able to suggest a good time for me to set out the next morning to beat the I-70 ski traffic.  The rooms are as expected for a TownePlace, which is a clean room/bathroom and comfortable bed.  If I could make one suggestion to take the property to the next level is to offer an evening managers reception.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed 2 separate nights at the TownePlace while on business Jan 30 and again Feb 4.  After driving 3 1/2 hours from Kansas the warm welcoming greeting from Jessica at the front desk was much appreciated.  At check in she was able to recommend an outstanding local restaurant and took time to chat about the local ski scene. She was also able to suggest a good time for me to set out the next morning to beat the I-70 ski traffic.  The rooms are as expected for a TownePlace, which is a clean room/bathroom and comfortable bed.  If I could make one suggestion to take the property to the next level is to offer an evening managers reception.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r236435649-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>236435649</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>Compact but all we needed</t>
+  </si>
+  <si>
+    <t>We're on a long road trip &amp; on night #2 we stayed here. We wanted to be past Denver &amp; have never explored Golden before. We've stayed at TownePlace Suites before so no surprises there. Check-in was smooth &amp; we had room 309. It has the full kitchen with fridge, dishwasher, smooth top stove, microwave, 1 queen comfy bed &amp; a sofa bed. The bathroom is all in one &amp; compact with good towels &amp; Paul Mitchell toiletries. There was minimal room-to-room noise &amp; some road noise but not intolerable. We didn't check out the pool or fitness room. The breakfast room was tiny &amp; crowded but we  found a table in the lobby. Options:  egg &amp; cheese omelets, sausage patties, toastables, sweets, cereal, oatmeal, yogurt, milks, juices, waffle maker, apples/bananas &amp; more. Great start to our day #3. Loved the Golden area &amp; would stay here again if back in this area........MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Edmond M, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded October 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2014</t>
+  </si>
+  <si>
+    <t>We're on a long road trip &amp; on night #2 we stayed here. We wanted to be past Denver &amp; have never explored Golden before. We've stayed at TownePlace Suites before so no surprises there. Check-in was smooth &amp; we had room 309. It has the full kitchen with fridge, dishwasher, smooth top stove, microwave, 1 queen comfy bed &amp; a sofa bed. The bathroom is all in one &amp; compact with good towels &amp; Paul Mitchell toiletries. There was minimal room-to-room noise &amp; some road noise but not intolerable. We didn't check out the pool or fitness room. The breakfast room was tiny &amp; crowded but we  found a table in the lobby. Options:  egg &amp; cheese omelets, sausage patties, toastables, sweets, cereal, oatmeal, yogurt, milks, juices, waffle maker, apples/bananas &amp; more. Great start to our day #3. Loved the Golden area &amp; would stay here again if back in this area........More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r226673310-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>226673310</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Not the cleanest property</t>
+  </si>
+  <si>
+    <t>Stayed here just for one night.  Was given a handicapped room which didn't allow for any counter space and had an awkward room layout.  Cleanliness in the common areas needs to be stepped up a bit.  Elevator, stairwell, and hallway carpeting did not appear to have been vacuumed recently.  When I left I called the front desk to switch out the shower curtain.  It was moldy on the bottom near the magnets.  A little more attention to detail by housekeeping would really improve this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Edmond M, Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here just for one night.  Was given a handicapped room which didn't allow for any counter space and had an awkward room layout.  Cleanliness in the common areas needs to be stepped up a bit.  Elevator, stairwell, and hallway carpeting did not appear to have been vacuumed recently.  When I left I called the front desk to switch out the shower curtain.  It was moldy on the bottom near the magnets.  A little more attention to detail by housekeeping would really improve this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r225845781-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>225845781</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Nice low cost motel</t>
+  </si>
+  <si>
+    <t>To start...this is not the Waldorf, nor did I expect it.  This hotel was clean, convenient and close to the attractions I was visiting while in Colorado.  Close to Colorado School of Mines, Coors Brewery and beautiful downtown Golden.  The 2 bedroom suite was perfect for family travel although I would call the beds full size rather than queen.  The free breakfast included waffles and the staff were very knowledgeable in the local attractions.  I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>To start...this is not the Waldorf, nor did I expect it.  This hotel was clean, convenient and close to the attractions I was visiting while in Colorado.  Close to Colorado School of Mines, Coors Brewery and beautiful downtown Golden.  The 2 bedroom suite was perfect for family travel although I would call the beds full size rather than queen.  The free breakfast included waffles and the staff were very knowledgeable in the local attractions.  I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r223305409-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>223305409</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>Edmond and staff are caring people - that means a lot!</t>
+  </si>
+  <si>
+    <t>The Bad-
+Arrived at Marriott Towneplace after my flight from east coast arrived in late afternoon and working til 2am.  Was greeted by Craig, who advised me that while I had a guaranteed reservation, there were no rooms available....  As this was 4am my time, I was too tired to be mad and frankly Craig was an awesome ambassador.  Craig couldn't confirm that my reservation would guarantee a room for the next two nights (my original reservation), but assured me that the General Manager, Edmond Martinez would "make it right".  Ok, cool, I said, exhausted and looking for a place for my head.  Craig got a room arranged at an adjacent hotel and at 2:45/4:45am I hit the hay...
+The Very Good-
+I woke up a bit later than normal and called Edmond.  He was a complete professional.  I felt at ease, relieved and checked in later that afternoon after an appointment.  Check-in was prompt and I asked if I say hello to Edmond.  He immediately came out and welcomed me.  I felt like the term now used too often: guest.
+The Excellent-
+The room exceeded my expectations.  Great studio layout and it has been recently updated.  Quiet.  Work desk perfect size and layout.  Mattress firm, nice selection of pillows.
+Lakewood location is great - less than 2 miles to the RTD, which you can take downtown to see a Rockies game for $8.00, great restaurants in area.  
+Cheers
+Summary...The Bad-Arrived at Marriott Towneplace after my flight from east coast arrived in late afternoon and working til 2am.  Was greeted by Craig, who advised me that while I had a guaranteed reservation, there were no rooms available....  As this was 4am my time, I was too tired to be mad and frankly Craig was an awesome ambassador.  Craig couldn't confirm that my reservation would guarantee a room for the next two nights (my original reservation), but assured me that the General Manager, Edmond Martinez would "make it right".  Ok, cool, I said, exhausted and looking for a place for my head.  Craig got a room arranged at an adjacent hotel and at 2:45/4:45am I hit the hay...The Very Good-I woke up a bit later than normal and called Edmond.  He was a complete professional.  I felt at ease, relieved and checked in later that afternoon after an appointment.  Check-in was prompt and I asked if I say hello to Edmond.  He immediately came out and welcomed me.  I felt like the term now used too often: guest.The Excellent-The room exceeded my expectations.  Great studio layout and it has been recently updated.  Quiet.  Work desk perfect size and layout.  Mattress firm, nice selection of pillows.Lakewood location is great - less than 2 miles to the RTD, which you can take downtown to see a Rockies game for $8.00, great restaurants in area.  CheersSummary - Good location, a staff that cares and great accommodations.  Other than pricing that seems a bit steep (as was rental car), I would strongly recommend Towneplace Suites Denver West / Federal Center.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Bad-
+Arrived at Marriott Towneplace after my flight from east coast arrived in late afternoon and working til 2am.  Was greeted by Craig, who advised me that while I had a guaranteed reservation, there were no rooms available....  As this was 4am my time, I was too tired to be mad and frankly Craig was an awesome ambassador.  Craig couldn't confirm that my reservation would guarantee a room for the next two nights (my original reservation), but assured me that the General Manager, Edmond Martinez would "make it right".  Ok, cool, I said, exhausted and looking for a place for my head.  Craig got a room arranged at an adjacent hotel and at 2:45/4:45am I hit the hay...
+The Very Good-
+I woke up a bit later than normal and called Edmond.  He was a complete professional.  I felt at ease, relieved and checked in later that afternoon after an appointment.  Check-in was prompt and I asked if I say hello to Edmond.  He immediately came out and welcomed me.  I felt like the term now used too often: guest.
+The Excellent-
+The room exceeded my expectations.  Great studio layout and it has been recently updated.  Quiet.  Work desk perfect size and layout.  Mattress firm, nice selection of pillows.
+Lakewood location is great - less than 2 miles to the RTD, which you can take downtown to see a Rockies game for $8.00, great restaurants in area.  
+Cheers
+Summary...The Bad-Arrived at Marriott Towneplace after my flight from east coast arrived in late afternoon and working til 2am.  Was greeted by Craig, who advised me that while I had a guaranteed reservation, there were no rooms available....  As this was 4am my time, I was too tired to be mad and frankly Craig was an awesome ambassador.  Craig couldn't confirm that my reservation would guarantee a room for the next two nights (my original reservation), but assured me that the General Manager, Edmond Martinez would "make it right".  Ok, cool, I said, exhausted and looking for a place for my head.  Craig got a room arranged at an adjacent hotel and at 2:45/4:45am I hit the hay...The Very Good-I woke up a bit later than normal and called Edmond.  He was a complete professional.  I felt at ease, relieved and checked in later that afternoon after an appointment.  Check-in was prompt and I asked if I say hello to Edmond.  He immediately came out and welcomed me.  I felt like the term now used too often: guest.The Excellent-The room exceeded my expectations.  Great studio layout and it has been recently updated.  Quiet.  Work desk perfect size and layout.  Mattress firm, nice selection of pillows.Lakewood location is great - less than 2 miles to the RTD, which you can take downtown to see a Rockies game for $8.00, great restaurants in area.  CheersSummary - Good location, a staff that cares and great accommodations.  Other than pricing that seems a bit steep (as was rental car), I would strongly recommend Towneplace Suites Denver West / Federal Center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r216674868-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>216674868</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Perfect place to stay for a week.</t>
+  </si>
+  <si>
+    <t>Stayed here for a week with a 14 year old baseball team and their families.  Staff could not have been more accommodating to us.  One of them even made cinnamon rolls for our team.  Very clean and the 2 bedroom suite was perfect for a family of 4.MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony D, Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for a week with a 14 year old baseball team and their families.  Staff could not have been more accommodating to us.  One of them even made cinnamon rolls for our team.  Very clean and the 2 bedroom suite was perfect for a family of 4.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r216155806-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>216155806</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Emergency stay</t>
+  </si>
+  <si>
+    <t>I am a truck driver and had a medical emergency that put me in the hospital for a surgery. After being released, was sent there to wait for my truck to return and pick me up. The whole staff, especially Angela and Cindy, went above and beyond to make my stay comfortable. Number one in my book!!!  PaulMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Anthony D, Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded July 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2014</t>
+  </si>
+  <si>
+    <t>I am a truck driver and had a medical emergency that put me in the hospital for a surgery. After being released, was sent there to wait for my truck to return and pick me up. The whole staff, especially Angela and Cindy, went above and beyond to make my stay comfortable. Number one in my book!!!  PaulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r214920612-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>214920612</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Pretty Good For My Long Term Stay</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property for about 3 months. It was pretty good for the price (keep in mind my rate was probably pretty low due to the long stay). I had a one bedroom unit. It was bigger than many one bedroom apartments. It was clean. The work space was probably the best I've ever had in a hotel. There are a few things that would greatly improve this hotel. The breakfast was pretty skimpy. I stopped eating it. The breakfast area is also very small. The bed, pillows and linens were not very comfortable in comparison to other Marriott properties (and not necessarily their higher priced properties). The immediate area is decent, but there's not really much within walking distance. Overall, I would definitely stay here again if the rates are the same.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Edmond M, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded July 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed at this property for about 3 months. It was pretty good for the price (keep in mind my rate was probably pretty low due to the long stay). I had a one bedroom unit. It was bigger than many one bedroom apartments. It was clean. The work space was probably the best I've ever had in a hotel. There are a few things that would greatly improve this hotel. The breakfast was pretty skimpy. I stopped eating it. The breakfast area is also very small. The bed, pillows and linens were not very comfortable in comparison to other Marriott properties (and not necessarily their higher priced properties). The immediate area is decent, but there's not really much within walking distance. Overall, I would definitely stay here again if the rates are the same.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r204344629-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>204344629</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Good Price</t>
+  </si>
+  <si>
+    <t>This place is clean.  It has basic accomodations.  The sheets are not replaced everyday, but rather refreashed.  It has a kitchen and the fridge worked for the ice quickly.  The cookies in the lobby are very good.  I liked the tredmill.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>This place is clean.  It has basic accomodations.  The sheets are not replaced everyday, but rather refreashed.  It has a kitchen and the fridge worked for the ice quickly.  The cookies in the lobby are very good.  I liked the tredmill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r203063728-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>203063728</t>
+  </si>
+  <si>
+    <t>04/27/2014</t>
+  </si>
+  <si>
+    <t>Decent Stay, a couple issues</t>
+  </si>
+  <si>
+    <t>We stayed here during our recent weekend getaway to Denver area. It was a pretty good stay, and we were in a two room suite. Plenty of room for the three of us, and the beds were comfy. About the only issues I had were the loud sounds made by the showers of other rooms and the mechanical noises made when the air conditioner went on in other rooms. It even woke me up a couple times each night. Would be nice to have the management look into this, as the other guests I came with said the same thing and they were in different building then I was.As far as the breakfast goes, I would give it about a 2 out of 5. There really aren't a lot of choices, and if you don't like the two main items they serve, you are left with boxed cereal or very average hard boiled eggs. I was not overly thrilled with either morning's breakfasts (2 mornings). Would recommend re-vamping this somehow to management. All in all, everyone I encountered was very friendly and welcoming. I would probably stay here again if in the area and needing a hotel, but would be going elsewhere for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Edmond M, General Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded April 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here during our recent weekend getaway to Denver area. It was a pretty good stay, and we were in a two room suite. Plenty of room for the three of us, and the beds were comfy. About the only issues I had were the loud sounds made by the showers of other rooms and the mechanical noises made when the air conditioner went on in other rooms. It even woke me up a couple times each night. Would be nice to have the management look into this, as the other guests I came with said the same thing and they were in different building then I was.As far as the breakfast goes, I would give it about a 2 out of 5. There really aren't a lot of choices, and if you don't like the two main items they serve, you are left with boxed cereal or very average hard boiled eggs. I was not overly thrilled with either morning's breakfasts (2 mornings). Would recommend re-vamping this somehow to management. All in all, everyone I encountered was very friendly and welcoming. I would probably stay here again if in the area and needing a hotel, but would be going elsewhere for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r201232529-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>201232529</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>We stayed here over the weekend. My daughter had an event downtown and it was a easy to get here to and from. We stayed in a two room suite, the room was nice but smelled funny. On day two, we told the front desk and they immediately moved us without hesitation. Everyone was very nice. The lady that ran breakfast was cheerful and helpful. The hotel is a bit loud, we were located right next to the stairs, other than that it is a great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r188502602-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>188502602</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>An okay place</t>
+  </si>
+  <si>
+    <t>As far a hotels go, this is about the middle of the road.  My room was good, service adequate and the desk staff was first rate, which is why I gave this the score I gave.Don't expect much from the breakfast bar but the afternoon cookies are a nice touch.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r182079783-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>182079783</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Stay </t>
+  </si>
+  <si>
+    <t>Zero complaints. Felt like staying in a one bed apt. Cozy full kitchen everything we needed. The Staff was on point room was spotless. We will stay here again. Best value for the money. Close to great shopping as well.e Breakfast was delicious &amp; efficient. a</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r180266980-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>180266980</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Nice but not grand</t>
+  </si>
+  <si>
+    <t>I opted to stay here as it is just minutes from my brother's home.  It is a franchise so it falls a bit short of Marriott corporate expectations.  It has been recently remodeled and while the room decor is fresh and modern, it still retains the classic mountain lodge feel of a Towne Place in Colorado.  Low point - the bed was lacking - it felt like a large foam pad over plywood.  High point - the work space though was among the most util I have found at any Marriott.  I was on the second floor so the noise from people walking around above me was distracting.  The breakfast buffet is typical of the lower end Marriott properties.  (You can't really complain about free.)  Note that the parking lot can fill up quickly nearer to the two buildings.  If you get in later you will have to park 'way out' in the back and up the hill.  The staff was warm and helpful.  For a place to lay your head at night while visiting family or touring Denver and the foothills of the Rockies, this will do at a very reasonable price.  If you are seeking a great hotel experience, keep looking.MoreShow less</t>
+  </si>
+  <si>
+    <t>I opted to stay here as it is just minutes from my brother's home.  It is a franchise so it falls a bit short of Marriott corporate expectations.  It has been recently remodeled and while the room decor is fresh and modern, it still retains the classic mountain lodge feel of a Towne Place in Colorado.  Low point - the bed was lacking - it felt like a large foam pad over plywood.  High point - the work space though was among the most util I have found at any Marriott.  I was on the second floor so the noise from people walking around above me was distracting.  The breakfast buffet is typical of the lower end Marriott properties.  (You can't really complain about free.)  Note that the parking lot can fill up quickly nearer to the two buildings.  If you get in later you will have to park 'way out' in the back and up the hill.  The staff was warm and helpful.  For a place to lay your head at night while visiting family or touring Denver and the foothills of the Rockies, this will do at a very reasonable price.  If you are seeking a great hotel experience, keep looking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r166853406-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>166853406</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Smelly, gross</t>
+  </si>
+  <si>
+    <t>Ac broke, room smelled.  Front desk did not do feather free, despite being in profile.  Creep sat on my bed.  2 nd try there - will not return.  Fairfield inn close by, try that until Marriott fixes this 1</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r162477626-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>162477626</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>This motel is quiet and clean with a good safety system.  The facility is undergoing some changes  and the breakfast area is in the lobby while the tables are temporarily located in one of the guest rooms which can only be attended by opening locked passageway doors. Somewhat difficult when your hands are carrying food and beverages.  The rooms are nice, quiet and have large LCD TV's with about 60 cable channels.  Each room also has a full kitchen and regular size refrigerator.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r161938420-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>161938420</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>"pet friendly"?</t>
+  </si>
+  <si>
+    <t>I booked a room via Expedia from a list of "pet friendly" motels.  When I arrived and informed them that I have a pet I was told that there is an additional charge of $100 for all pets.  That is on top of the room charge.  We had quite a discussion.  I told them that a $100 charge for a pet makes them decidedly pet unfriendly so they are false advertising.  Yes, the charge is listed on their web site but only where they get into the specifics of their policies.  Not near where they list themselves as "pet friendly".  Our recent travels have had charges from zero up to $15 for pets.  Sites like Expedia only list motels as "pet friendly" or not and do not mention any specifics.  I cannot rate anything else about the motel as I canceled the reservation and went to Candlewood Suites (right next door) for a similar room and rate but with a $15 pet feeMoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room via Expedia from a list of "pet friendly" motels.  When I arrived and informed them that I have a pet I was told that there is an additional charge of $100 for all pets.  That is on top of the room charge.  We had quite a discussion.  I told them that a $100 charge for a pet makes them decidedly pet unfriendly so they are false advertising.  Yes, the charge is listed on their web site but only where they get into the specifics of their policies.  Not near where they list themselves as "pet friendly".  Our recent travels have had charges from zero up to $15 for pets.  Sites like Expedia only list motels as "pet friendly" or not and do not mention any specifics.  I cannot rate anything else about the motel as I canceled the reservation and went to Candlewood Suites (right next door) for a similar room and rate but with a $15 pet feeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r155610928-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>155610928</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Have a fruit roll up on me / Construction on the 3rd floor 7am</t>
+  </si>
+  <si>
+    <t>7:30a.m. Construction on the 3rd floor woke us up. I spoke with the manager and he said oh were remodeling the 3rd floor, my daughter was getting a fruit roll up and the manager said the fruit roll up is on me for your inconvenience. What a joke! We arrived at 1:00 a.m. The night manager was very good. Don't stay here unless your a construction worker or like fruit roll up's.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r144886613-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>144886613</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>Stay would be awesome if internet was fast</t>
+  </si>
+  <si>
+    <t>Everything is acceptable but the wifi speed. The internet connection is very slow and I don't recommend anyone staying here if you rely on a fast internet connection. The excuse for the slow speed is too many people on it at a time which other hotels I've stayed at don't have that problem. Snack store is over priced. Nothing wrong with the room, location is Decent...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r141952454-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>141952454</t>
+  </si>
+  <si>
+    <t>10/03/2012</t>
+  </si>
+  <si>
+    <t>property stolen and rooms not cleaned well</t>
+  </si>
+  <si>
+    <t>Been here three weeks and have had cleaning issues from the start, have to keep asking for towels and garbage bags.  Last week my $700 designer prescription glasses disappeared from the bathroom counter and they did nothing other than say "too bad"</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r133161855-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>133161855</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>A Comfort Inn masquerading under the Marriott brand</t>
+  </si>
+  <si>
+    <t>If you know Comfort Inns, you know this place but it's not a Comfort Inn.  It's a Marriott Towne Place Suites and what a misnomer the "suites" part is.  The fun begins with entering the postage stamp size lobby with it's faux business center (one slow computer terminal and printer crammed into the corner of a very small room).  Next door is a laundry room that doesn't even have a folding table or a wastebasket for dryer lint near the dryers (it's at the door).  Getting to your room requires walking through hallways with garish lighting (nothing against those fluorescent replacement bulbs but they can get them in a normal color balance for the same price)m, stains on the walls that haven't been cleaned and painted and gouges in door frames, trim, etc.  The hallways look a little trashy.  Wouldn't take much to spiff it up if the management really cared about maintenance.  
+Now to the room. Spartan furnishings but clean.  Shower worked well.  Toiletries were there but partially empty.  LCD TV on top of a piece of damaged furniture.  No dresser.  Tiny work desk with no telephone on the desk although there is an outlet for it. WiFi was OK.  Stain on sofa.  
+I've been at TownePlace suites that were more attractive, better maintained and better furnished with a proper business center and community room.  This place should be a Comfort Inn. 
+Staff was friendly but ownership and management...If you know Comfort Inns, you know this place but it's not a Comfort Inn.  It's a Marriott Towne Place Suites and what a misnomer the "suites" part is.  The fun begins with entering the postage stamp size lobby with it's faux business center (one slow computer terminal and printer crammed into the corner of a very small room).  Next door is a laundry room that doesn't even have a folding table or a wastebasket for dryer lint near the dryers (it's at the door).  Getting to your room requires walking through hallways with garish lighting (nothing against those fluorescent replacement bulbs but they can get them in a normal color balance for the same price)m, stains on the walls that haven't been cleaned and painted and gouges in door frames, trim, etc.  The hallways look a little trashy.  Wouldn't take much to spiff it up if the management really cared about maintenance.  Now to the room. Spartan furnishings but clean.  Shower worked well.  Toiletries were there but partially empty.  LCD TV on top of a piece of damaged furniture.  No dresser.  Tiny work desk with no telephone on the desk although there is an outlet for it. WiFi was OK.  Stain on sofa.  I've been at TownePlace suites that were more attractive, better maintained and better furnished with a proper business center and community room.  This place should be a Comfort Inn. Staff was friendly but ownership and management needs change.  Much of this place has a cheap, chintzy and run down appearance.  With a proactive approach to clean up, paint up and fix up things might be at least a little better.  Note: my ratings are based by comparing this to the average Marriott brand property.  This place wouldn't make even a basic Fairfield Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>If you know Comfort Inns, you know this place but it's not a Comfort Inn.  It's a Marriott Towne Place Suites and what a misnomer the "suites" part is.  The fun begins with entering the postage stamp size lobby with it's faux business center (one slow computer terminal and printer crammed into the corner of a very small room).  Next door is a laundry room that doesn't even have a folding table or a wastebasket for dryer lint near the dryers (it's at the door).  Getting to your room requires walking through hallways with garish lighting (nothing against those fluorescent replacement bulbs but they can get them in a normal color balance for the same price)m, stains on the walls that haven't been cleaned and painted and gouges in door frames, trim, etc.  The hallways look a little trashy.  Wouldn't take much to spiff it up if the management really cared about maintenance.  
+Now to the room. Spartan furnishings but clean.  Shower worked well.  Toiletries were there but partially empty.  LCD TV on top of a piece of damaged furniture.  No dresser.  Tiny work desk with no telephone on the desk although there is an outlet for it. WiFi was OK.  Stain on sofa.  
+I've been at TownePlace suites that were more attractive, better maintained and better furnished with a proper business center and community room.  This place should be a Comfort Inn. 
+Staff was friendly but ownership and management...If you know Comfort Inns, you know this place but it's not a Comfort Inn.  It's a Marriott Towne Place Suites and what a misnomer the "suites" part is.  The fun begins with entering the postage stamp size lobby with it's faux business center (one slow computer terminal and printer crammed into the corner of a very small room).  Next door is a laundry room that doesn't even have a folding table or a wastebasket for dryer lint near the dryers (it's at the door).  Getting to your room requires walking through hallways with garish lighting (nothing against those fluorescent replacement bulbs but they can get them in a normal color balance for the same price)m, stains on the walls that haven't been cleaned and painted and gouges in door frames, trim, etc.  The hallways look a little trashy.  Wouldn't take much to spiff it up if the management really cared about maintenance.  Now to the room. Spartan furnishings but clean.  Shower worked well.  Toiletries were there but partially empty.  LCD TV on top of a piece of damaged furniture.  No dresser.  Tiny work desk with no telephone on the desk although there is an outlet for it. WiFi was OK.  Stain on sofa.  I've been at TownePlace suites that were more attractive, better maintained and better furnished with a proper business center and community room.  This place should be a Comfort Inn. Staff was friendly but ownership and management needs change.  Much of this place has a cheap, chintzy and run down appearance.  With a proactive approach to clean up, paint up and fix up things might be at least a little better.  Note: my ratings are based by comparing this to the average Marriott brand property.  This place wouldn't make even a basic Fairfield Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r132196659-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>132196659</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>Not up to par</t>
+  </si>
+  <si>
+    <t>Not horrible, but not good enough.  Dirty comforter in my room and my friends, air conditioning not working, saggy couch cushions, dirty pool water (bugs), all coffee out for several minutes in breakfast area,  waited patiently and reminded associate that we still didn't have coffee, politely said thank-you after finally getting coffee and received a snub.  Price a little high for what I consider a 2.5 star rating, everything cheap in the place including structure.  Was not and have never written a review before, but air-conditioning on a 100 degree day put me over the edge.  Not even a real apology from the front desk.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r126711336-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>126711336</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Poor customer service for a Marriott</t>
+  </si>
+  <si>
+    <t>My wife, daughter and granddaughter stayed here for almost a week. Left before week was up due to the staff being totally rude, room/bathroom being very dirty and not clean like a normal Marriott property.  Absolutely do not recommend this property unless you are a business person and not paying personally.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r126008272-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>126008272</t>
+  </si>
+  <si>
+    <t>03/12/2012</t>
+  </si>
+  <si>
+    <t>This place does lodging "right"</t>
+  </si>
+  <si>
+    <t>The staff, service, and facility at this location thoroughly impressed us. Several times during our four-night stay we remarked “this is how it should be done”.
+Our single bed suite was very well appointed. The linens and towels were clean, work area nicely arranged, kitchenette spotless with essential cooking items. The bathroom was immaculate and housekeeping did a great job of maintaining it. The large flat-screen television offered a good picture and provided plenty of channels for viewing.
+A grab-and-go breakfast of cereals, bagels, boiled eggs, etc. is available in the lobby each morning. They serve coffee throughout the day, and freshly-baked cookies each afternoon. 
+Staff members went out of their way to make our stay enjoyable and memorable. When we had a questions or problems... and there weren't many... they immediately responded. 
+A couple of examples…
+1) My card key would open our room door, but not the external lock. The building technician went immediately with me to resolve the problem. No waiting!
+2) My wife always inspects rooms thoroughly. She noticed old stains on a two of our five pillows. The stains were hidden by the sparkling fresh pillow cases. We've seen this condition in other hotels and would have been happy with replacement pillows... Instead, the building supervisor handwrote an apologetic note, left Cheez-its and other items for us, and added rewards points to our account.
+In over 30 years of business travel I've rarely seen this...The staff, service, and facility at this location thoroughly impressed us. Several times during our four-night stay we remarked “this is how it should be done”.Our single bed suite was very well appointed. The linens and towels were clean, work area nicely arranged, kitchenette spotless with essential cooking items. The bathroom was immaculate and housekeeping did a great job of maintaining it. The large flat-screen television offered a good picture and provided plenty of channels for viewing.A grab-and-go breakfast of cereals, bagels, boiled eggs, etc. is available in the lobby each morning. They serve coffee throughout the day, and freshly-baked cookies each afternoon. Staff members went out of their way to make our stay enjoyable and memorable. When we had a questions or problems... and there weren't many... they immediately responded. A couple of examples…1) My card key would open our room door, but not the external lock. The building technician went immediately with me to resolve the problem. No waiting!2) My wife always inspects rooms thoroughly. She noticed old stains on a two of our five pillows. The stains were hidden by the sparkling fresh pillow cases. We've seen this condition in other hotels and would have been happy with replacement pillows... Instead, the building supervisor handwrote an apologetic note, left Cheez-its and other items for us, and added rewards points to our account.In over 30 years of business travel I've rarely seen this type of "above and beyond" response, even at other Marriott properties.For sightseers like us, the property is centrally located to major attractions like Lookout Mountain, Red Rocks, Golden, and I-70 (the gateway to central mountain communities). Using Highway 6 we were able to reach downtown Denver in short order.One note of caution before you go: the hotel's design blends with surrounding apartments and the sign on Simms (the main street) is rather small. Even though I'd printed an online map before our trip, we missed the entrance twice.Given the service, amenities and location, this TownePlace Suites represents one of the best lodging values we’ve found. If in the area again we’ll check first with them.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff, service, and facility at this location thoroughly impressed us. Several times during our four-night stay we remarked “this is how it should be done”.
+Our single bed suite was very well appointed. The linens and towels were clean, work area nicely arranged, kitchenette spotless with essential cooking items. The bathroom was immaculate and housekeeping did a great job of maintaining it. The large flat-screen television offered a good picture and provided plenty of channels for viewing.
+A grab-and-go breakfast of cereals, bagels, boiled eggs, etc. is available in the lobby each morning. They serve coffee throughout the day, and freshly-baked cookies each afternoon. 
+Staff members went out of their way to make our stay enjoyable and memorable. When we had a questions or problems... and there weren't many... they immediately responded. 
+A couple of examples…
+1) My card key would open our room door, but not the external lock. The building technician went immediately with me to resolve the problem. No waiting!
+2) My wife always inspects rooms thoroughly. She noticed old stains on a two of our five pillows. The stains were hidden by the sparkling fresh pillow cases. We've seen this condition in other hotels and would have been happy with replacement pillows... Instead, the building supervisor handwrote an apologetic note, left Cheez-its and other items for us, and added rewards points to our account.
+In over 30 years of business travel I've rarely seen this...The staff, service, and facility at this location thoroughly impressed us. Several times during our four-night stay we remarked “this is how it should be done”.Our single bed suite was very well appointed. The linens and towels were clean, work area nicely arranged, kitchenette spotless with essential cooking items. The bathroom was immaculate and housekeeping did a great job of maintaining it. The large flat-screen television offered a good picture and provided plenty of channels for viewing.A grab-and-go breakfast of cereals, bagels, boiled eggs, etc. is available in the lobby each morning. They serve coffee throughout the day, and freshly-baked cookies each afternoon. Staff members went out of their way to make our stay enjoyable and memorable. When we had a questions or problems... and there weren't many... they immediately responded. A couple of examples…1) My card key would open our room door, but not the external lock. The building technician went immediately with me to resolve the problem. No waiting!2) My wife always inspects rooms thoroughly. She noticed old stains on a two of our five pillows. The stains were hidden by the sparkling fresh pillow cases. We've seen this condition in other hotels and would have been happy with replacement pillows... Instead, the building supervisor handwrote an apologetic note, left Cheez-its and other items for us, and added rewards points to our account.In over 30 years of business travel I've rarely seen this type of "above and beyond" response, even at other Marriott properties.For sightseers like us, the property is centrally located to major attractions like Lookout Mountain, Red Rocks, Golden, and I-70 (the gateway to central mountain communities). Using Highway 6 we were able to reach downtown Denver in short order.One note of caution before you go: the hotel's design blends with surrounding apartments and the sign on Simms (the main street) is rather small. Even though I'd printed an online map before our trip, we missed the entrance twice.Given the service, amenities and location, this TownePlace Suites represents one of the best lodging values we’ve found. If in the area again we’ll check first with them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r125732835-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>125732835</t>
+  </si>
+  <si>
+    <t>03/06/2012</t>
+  </si>
+  <si>
+    <t>Very good value for an award stay</t>
+  </si>
+  <si>
+    <t>I've stayed here several times on award stays. This property is a Category 1 hotel (7500 Marriott Reward points) and reward availability is pretty reliable. This is a very good value as published rates during the week run around $100.Have never had a problem with any stay. Desk staff has always been courteous and special requests (extra pillows/towels etc) have always been accommodated. I do have status but they seem nice to everyone. Rooms are modern, clean and comfortable.For food/groceries, go south on Simms past US 6 after Simms becomes Union Boulevard. A King Soopers is at the corner of Union and Alameda and a Safeway is a little further west on Alameda. The area to the north, including the Colfax corridor, is somewhat sketchier.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I've stayed here several times on award stays. This property is a Category 1 hotel (7500 Marriott Reward points) and reward availability is pretty reliable. This is a very good value as published rates during the week run around $100.Have never had a problem with any stay. Desk staff has always been courteous and special requests (extra pillows/towels etc) have always been accommodated. I do have status but they seem nice to everyone. Rooms are modern, clean and comfortable.For food/groceries, go south on Simms past US 6 after Simms becomes Union Boulevard. A King Soopers is at the corner of Union and Alameda and a Safeway is a little further west on Alameda. The area to the north, including the Colfax corridor, is somewhat sketchier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r121038508-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>121038508</t>
+  </si>
+  <si>
+    <t>11/25/2011</t>
+  </si>
+  <si>
+    <t>Nice  hotel in quiet area</t>
+  </si>
+  <si>
+    <t>Only spent 1 night in a studio. Room was big enough for 2 peolpe. The are is nice and quiet, but i would ask for a room that does not face the road, as the windows are not double glazed.Bed was very nice and the sofa was just ok. Shower was great.Kitchette is a bonus. Breakfast is a grab and go, so nothing special, but was satisfying.Staff were very helpfullWhen in Denver again i will stay again</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r118945992-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>118945992</t>
+  </si>
+  <si>
+    <t>10/04/2011</t>
+  </si>
+  <si>
+    <t>Clean, Friendly, Comfortable</t>
+  </si>
+  <si>
+    <t>great for an extended stay near golden. full kitchen, comfortable bed, plenty of space, friendly front desk, close to shopping and gas</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r118921489-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>118921489</t>
+  </si>
+  <si>
+    <t>Trip to co</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this property this past week. Although there is a distinct smell when you enter the building, it is clean. It is close to Route 6E &amp; W and you can travel up to the Rocky Mountain National Park in 2 hours and down to Colorado Springs within an hour and a half. That is why we picked this hotel to stay in. Has a full kitchen. The continental breakfast was not the best but it was adequate and there is a restaurant within walking distance (less than 5 minutes) called "Just Cookin" that has eat-in or take out which was very good. I would stay at this property if we ever went back to Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this property this past week. Although there is a distinct smell when you enter the building, it is clean. It is close to Route 6E &amp; W and you can travel up to the Rocky Mountain National Park in 2 hours and down to Colorado Springs within an hour and a half. That is why we picked this hotel to stay in. Has a full kitchen. The continental breakfast was not the best but it was adequate and there is a restaurant within walking distance (less than 5 minutes) called "Just Cookin" that has eat-in or take out which was very good. I would stay at this property if we ever went back to Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r115654009-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>115654009</t>
+  </si>
+  <si>
+    <t>07/22/2011</t>
+  </si>
+  <si>
+    <t>The hotel staff were so nice and informative</t>
+  </si>
+  <si>
+    <t>Your staff was kind and courteous, especially Kelly.  Housekeeping people were very nice and helpful.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r110155372-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>110155372</t>
+  </si>
+  <si>
+    <t>05/27/2011</t>
+  </si>
+  <si>
+    <t>Very disappointed</t>
+  </si>
+  <si>
+    <t>My husband and I booked a two room suite at this property due to the reviews on TA.  We were attending a graduation at Red Rocks and also hosting a bridal shower.  I needed a kitchen to prepare food for the shower.  The suite was not all that clean as there was 'something" on the doors and trim of the bathroom.  The appliances were very old and didn't work all that well.  The stove's large burner didn't work and that s what I needed.  The refrigerator was very old and didn't work all that well either.  There was no dishwasher soap or any dish soap at all.  The breakfast was very basic and there was no place to sit at all so you had to carry everything back to your room.  We will be returning to the Denver area twice more this summer, but we certainly would NOT stay at this property.  I do not know how it can keep the Marriott brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>MatTPS, Manager at TownePlace Suites Denver West/Federal Center, responded to this reviewResponded June 7, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2011</t>
+  </si>
+  <si>
+    <t>My husband and I booked a two room suite at this property due to the reviews on TA.  We were attending a graduation at Red Rocks and also hosting a bridal shower.  I needed a kitchen to prepare food for the shower.  The suite was not all that clean as there was 'something" on the doors and trim of the bathroom.  The appliances were very old and didn't work all that well.  The stove's large burner didn't work and that s what I needed.  The refrigerator was very old and didn't work all that well either.  There was no dishwasher soap or any dish soap at all.  The breakfast was very basic and there was no place to sit at all so you had to carry everything back to your room.  We will be returning to the Denver area twice more this summer, but we certainly would NOT stay at this property.  I do not know how it can keep the Marriott brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r107969465-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>107969465</t>
+  </si>
+  <si>
+    <t>05/12/2011</t>
+  </si>
+  <si>
+    <t>Wonderful Staff, Great Location, and Home Away From Home!</t>
+  </si>
+  <si>
+    <t>A few months ago my husband and I stayed here, and had one 'minor' incident. (Bottom floor... people above us were obnoxious and loud!)   I took the time to fill out the survey you get after your stay, complimenting them on literally everything else, but pointed out that if this one incident had been fixed, we'd have been more prone to return.
+Albeit completely not expecting it, I got a lovely personalized response from this hotel's Manager, Mat Smith.  He apologized for not making our stay 'perfect', and actually refunded the majority of the rewards points I had used for my stay.  He asked that we give them another chance if we were in town again, and to contact him directly for a room on the third floor.
+I was so impressed with the customer service, we DID in fact give them another chance, recently staying from May 5 - May 10.
+Let me tell you... I cannot rave enough about this place!  Upon check-in, I was treated like royalty.  Due to our last experience, (again... very minor issue!) they had taken the liberty of up-grading us to a 2 bedroom suite!  Customer service goes a long, long way in my book!
+Here are some major perks about this hotel;
+- My bed was perfect, and that's the most important to me!  My memory foam made my stay enjoyable!
+- Every room has all the comforts of home, and they...A few months ago my husband and I stayed here, and had one 'minor' incident. (Bottom floor... people above us were obnoxious and loud!)   I took the time to fill out the survey you get after your stay, complimenting them on literally everything else, but pointed out that if this one incident had been fixed, we'd have been more prone to return.Albeit completely not expecting it, I got a lovely personalized response from this hotel's Manager, Mat Smith.  He apologized for not making our stay 'perfect', and actually refunded the majority of the rewards points I had used for my stay.  He asked that we give them another chance if we were in town again, and to contact him directly for a room on the third floor.I was so impressed with the customer service, we DID in fact give them another chance, recently staying from May 5 - May 10.Let me tell you... I cannot rave enough about this place!  Upon check-in, I was treated like royalty.  Due to our last experience, (again... very minor issue!) they had taken the liberty of up-grading us to a 2 bedroom suite!  Customer service goes a long, long way in my book!Here are some major perks about this hotel;- My bed was perfect, and that's the most important to me!  My memory foam made my stay enjoyable!- Every room has all the comforts of home, and they forget nothing!  They are fully stocked with fridge, microwave, oven, toaster, coffee maker, etc.  There is nothing forgotten... right down to leaving coffee and dish soap in your room.- Heating/cooling system is efficient and quiet.- Very convenient location; 1/4 mile off the 6, and 2 miles from the 70.  Some great restaurants nearby, and Colorado Mills Mall is less than 4 miles.- The staff is superb!  It's so refreshing to deal with pleasant folks who truly want to make your stay enjoyable!- There is always a wonderful array of fresh coffee and warm cookies in the lobby, complete with travel cups and flavored creamers.- Free internet, (wire or wi-fi) and a computer with printer you can also use free of charge in the lobby.- 24-hour exercise room.  It's small, but state of the art equipment.- Rooms are spacious, were immaculately clean, and the fresh linens were of a higher quality than the norm.  No 'hard and scratchy' feeling.- Current/updated furnishings, as our room had 3 flat screen televisions in it, a new fridge, and a modern decor.All in all, I highly recommend this hotel.  You could tell they've got the right idea, because the parking lot is always full, and with all the competition in the area, there's only one reason... they truly want to make your stay an enjoyable one!MoreShow less</t>
+  </si>
+  <si>
+    <t>A few months ago my husband and I stayed here, and had one 'minor' incident. (Bottom floor... people above us were obnoxious and loud!)   I took the time to fill out the survey you get after your stay, complimenting them on literally everything else, but pointed out that if this one incident had been fixed, we'd have been more prone to return.
+Albeit completely not expecting it, I got a lovely personalized response from this hotel's Manager, Mat Smith.  He apologized for not making our stay 'perfect', and actually refunded the majority of the rewards points I had used for my stay.  He asked that we give them another chance if we were in town again, and to contact him directly for a room on the third floor.
+I was so impressed with the customer service, we DID in fact give them another chance, recently staying from May 5 - May 10.
+Let me tell you... I cannot rave enough about this place!  Upon check-in, I was treated like royalty.  Due to our last experience, (again... very minor issue!) they had taken the liberty of up-grading us to a 2 bedroom suite!  Customer service goes a long, long way in my book!
+Here are some major perks about this hotel;
+- My bed was perfect, and that's the most important to me!  My memory foam made my stay enjoyable!
+- Every room has all the comforts of home, and they...A few months ago my husband and I stayed here, and had one 'minor' incident. (Bottom floor... people above us were obnoxious and loud!)   I took the time to fill out the survey you get after your stay, complimenting them on literally everything else, but pointed out that if this one incident had been fixed, we'd have been more prone to return.Albeit completely not expecting it, I got a lovely personalized response from this hotel's Manager, Mat Smith.  He apologized for not making our stay 'perfect', and actually refunded the majority of the rewards points I had used for my stay.  He asked that we give them another chance if we were in town again, and to contact him directly for a room on the third floor.I was so impressed with the customer service, we DID in fact give them another chance, recently staying from May 5 - May 10.Let me tell you... I cannot rave enough about this place!  Upon check-in, I was treated like royalty.  Due to our last experience, (again... very minor issue!) they had taken the liberty of up-grading us to a 2 bedroom suite!  Customer service goes a long, long way in my book!Here are some major perks about this hotel;- My bed was perfect, and that's the most important to me!  My memory foam made my stay enjoyable!- Every room has all the comforts of home, and they forget nothing!  They are fully stocked with fridge, microwave, oven, toaster, coffee maker, etc.  There is nothing forgotten... right down to leaving coffee and dish soap in your room.- Heating/cooling system is efficient and quiet.- Very convenient location; 1/4 mile off the 6, and 2 miles from the 70.  Some great restaurants nearby, and Colorado Mills Mall is less than 4 miles.- The staff is superb!  It's so refreshing to deal with pleasant folks who truly want to make your stay enjoyable!- There is always a wonderful array of fresh coffee and warm cookies in the lobby, complete with travel cups and flavored creamers.- Free internet, (wire or wi-fi) and a computer with printer you can also use free of charge in the lobby.- 24-hour exercise room.  It's small, but state of the art equipment.- Rooms are spacious, were immaculately clean, and the fresh linens were of a higher quality than the norm.  No 'hard and scratchy' feeling.- Current/updated furnishings, as our room had 3 flat screen televisions in it, a new fridge, and a modern decor.All in all, I highly recommend this hotel.  You could tell they've got the right idea, because the parking lot is always full, and with all the competition in the area, there's only one reason... they truly want to make your stay an enjoyable one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r95301958-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>95301958</t>
+  </si>
+  <si>
+    <t>02/02/2011</t>
+  </si>
+  <si>
+    <t>I'M GLAD I PICKED THIS PLACE TO STAY WHILE IN DENVER</t>
+  </si>
+  <si>
+    <t>Stayed here with my wife for 15 days in January. While I was here I got the pleasure of meeting  Matt and the staff and found them to be very friendly, thoughtful and accomdating. Our queen suite was clean and confortable. The room included a small kitchen that had a refrigerator, microwave, stove and dishwasher. The bed was confortable and it was also nice to be able to sit on the couch or chair and watch tv on the 32" flat screen in the evening. I highly recomend staying here on your next extended stay in Denver.</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r69456117-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>69456117</t>
+  </si>
+  <si>
+    <t>07/02/2010</t>
+  </si>
+  <si>
+    <t>Worst stay on record!</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for 4 nights and it started bad and ended even worse.They didn't have my room I booked so I had to deal with that even though I had my confimation showing room.Then when I got to room there was hairs all in the tub plus on toilet seat..I had a hard time also getting any linens for the pool.Sara the manager said "Most people bring their own towels to the pool."I thought that was very unprofessional.I was very happy to leave that hotel by this point.I love Colorado and its bad that a place like this can even remain in business.The hotel is very free about charging smoking fees on your card even if you don't smoke.So be prepared for a wonderful stay in Golden.I will sleep in gutter in Denver before I stay there again.BP is a better business,and you know how horrible they are.Thanks Sara for a wonderful stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for 4 nights and it started bad and ended even worse.They didn't have my room I booked so I had to deal with that even though I had my confimation showing room.Then when I got to room there was hairs all in the tub plus on toilet seat..I had a hard time also getting any linens for the pool.Sara the manager said "Most people bring their own towels to the pool."I thought that was very unprofessional.I was very happy to leave that hotel by this point.I love Colorado and its bad that a place like this can even remain in business.The hotel is very free about charging smoking fees on your card even if you don't smoke.So be prepared for a wonderful stay in Golden.I will sleep in gutter in Denver before I stay there again.BP is a better business,and you know how horrible they are.Thanks Sara for a wonderful stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r62422868-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>62422868</t>
+  </si>
+  <si>
+    <t>04/25/2010</t>
+  </si>
+  <si>
+    <t>Pleasant and comfortable hotel</t>
+  </si>
+  <si>
+    <t>Stayed three nights here.  Staff were very friendly and welcoming and room was clean and comfortable with microwave, refrigerator and stove, etc in small kitchen.  Bed was extremely comfortable and room pleasantly decorated, but Towneplace is at the lower end of the Marriott chain so I did not expect it to be luxurious.  Only problem was that room had been sprayed with Febreze like product, perhaps because it had been used by dog owner before us, I don't know.  However, this was easily resolved by opening the window wide, after which there was no smell of anything.  Room was cleaned nicely.  Hotel is in good location transport wise for what we wanted and near to decent restaurants, etc.  It was also very quiet and we got a good night's sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>Stayed three nights here.  Staff were very friendly and welcoming and room was clean and comfortable with microwave, refrigerator and stove, etc in small kitchen.  Bed was extremely comfortable and room pleasantly decorated, but Towneplace is at the lower end of the Marriott chain so I did not expect it to be luxurious.  Only problem was that room had been sprayed with Febreze like product, perhaps because it had been used by dog owner before us, I don't know.  However, this was easily resolved by opening the window wide, after which there was no smell of anything.  Room was cleaned nicely.  Hotel is in good location transport wise for what we wanted and near to decent restaurants, etc.  It was also very quiet and we got a good night's sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r36680273-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>36680273</t>
+  </si>
+  <si>
+    <t>08/04/2009</t>
+  </si>
+  <si>
+    <t>Perfect staff/ perfect stay</t>
+  </si>
+  <si>
+    <t>I was traveling to Denver to attend an event for a friend.  The hotel was chosen for me so I really didn't know what to expect before I got there.  I was very pleased to find a cozy hotel with amazingly clean rooms.  I'm a very picky traveler and found this property to not only meet but exceed my strict standards for clenliness.  My room was perfectly sized with comfy bed, soft linens, sitting area with sofa and chair and a desk.  The wifi worked perfectly every time I logged on, no skips or dropped pages.  The staff was friendly and helpful and the coffee and cookies in the lobby were always a welcomed treat.  The cleaning staff were there every morning with fresh towels, kitchen linens and a friendly smile.  The full service in room kitchen was clean, well appointed  and even had a cork screw.If you're looking for a super luxurious hotel with bar, restaurant and marble lobby this is not the property for you but if your goal is a super clean, quiet place to relax, with loads of bang for the buck then this property is for you.  I would highly recommend this property for families on a budget.  Loads of space, great cable system for TV entertainment, a small but nice pool and an easy jumping off point for all Denver destinations and great restaurants in the area to choose from.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>I was traveling to Denver to attend an event for a friend.  The hotel was chosen for me so I really didn't know what to expect before I got there.  I was very pleased to find a cozy hotel with amazingly clean rooms.  I'm a very picky traveler and found this property to not only meet but exceed my strict standards for clenliness.  My room was perfectly sized with comfy bed, soft linens, sitting area with sofa and chair and a desk.  The wifi worked perfectly every time I logged on, no skips or dropped pages.  The staff was friendly and helpful and the coffee and cookies in the lobby were always a welcomed treat.  The cleaning staff were there every morning with fresh towels, kitchen linens and a friendly smile.  The full service in room kitchen was clean, well appointed  and even had a cork screw.If you're looking for a super luxurious hotel with bar, restaurant and marble lobby this is not the property for you but if your goal is a super clean, quiet place to relax, with loads of bang for the buck then this property is for you.  I would highly recommend this property for families on a budget.  Loads of space, great cable system for TV entertainment, a small but nice pool and an easy jumping off point for all Denver destinations and great restaurants in the area to choose from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r18813806-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>18813806</t>
+  </si>
+  <si>
+    <t>08/10/2008</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>This had everything you come to expect from a Marriott property.The rooms were well maintained and clean. The staff very helpful and the amenities in the business center were without fault. Maybe a little too close to the main road to get a relaxing time by the pool which was a little on the small size. but this ia just being picky.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r12304880-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>12304880</t>
+  </si>
+  <si>
+    <t>01/03/2008</t>
+  </si>
+  <si>
+    <t>A great month at Towneplace</t>
+  </si>
+  <si>
+    <t>I stayed in the Towneplace Federal Center for one month in the fall. There are many good points to this property. The parking is right nextto the buildings, no walkin half a mile to your room as seems to be the trend these days. The rooms are homey and comfortable, with small kitchens and all the items you need for a months stay (pots and pans, utensils, colander, coffee pot, toaster). The refrigerator is full size which is great for storing water bottles if you suffer from elevation sickness in the mile high city. As a woman traveling alone, I felt completely safe at all times. All staff were exceptional. They kept the sidewalks salted and shoveled and were always happy to provide quarters for the laundry machines. This is a very quiet property. Even on the weekends it was calm. At first, it might seem a little off the beaten path, but actually it is very close to the Colorado Mills Outlet Mall and plentyof restaurant and grocery store options. Altogether a great stay in a comfortable, clean, quiet room.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>I stayed in the Towneplace Federal Center for one month in the fall. There are many good points to this property. The parking is right nextto the buildings, no walkin half a mile to your room as seems to be the trend these days. The rooms are homey and comfortable, with small kitchens and all the items you need for a months stay (pots and pans, utensils, colander, coffee pot, toaster). The refrigerator is full size which is great for storing water bottles if you suffer from elevation sickness in the mile high city. As a woman traveling alone, I felt completely safe at all times. All staff were exceptional. They kept the sidewalks salted and shoveled and were always happy to provide quarters for the laundry machines. This is a very quiet property. Even on the weekends it was calm. At first, it might seem a little off the beaten path, but actually it is very close to the Colorado Mills Outlet Mall and plentyof restaurant and grocery store options. Altogether a great stay in a comfortable, clean, quiet room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r6182374-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>6182374</t>
+  </si>
+  <si>
+    <t>11/26/2006</t>
+  </si>
+  <si>
+    <t>OK, Fire Alarm went off weekly for 2 months with few warnings of the "repairs"</t>
+  </si>
+  <si>
+    <t>Fire alarm problems were hard on pets. I also thought the maid service could have been better. Minor effort cleaning. Once Management knew of problems they gave a lot of attention, problem solved or not. I would stay again but would not expect Marriott's best. Great location near highways and shopping/ restaurants. With effort you can manage a price of around 70.00 per night.</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r4742381-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>4742381</t>
+  </si>
+  <si>
+    <t>03/27/2006</t>
+  </si>
+  <si>
+    <t>GREAT Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here over the weekend (March 24-27, 2006) and really liked this hotel. It's located in a quiet area of town yet close enough to gain access to the freeways. The staff was friendly, helpful, and accomodating. Our room was nice, clean, and comfortable. There was even free high-speed internet. Overall, we had a great time there and would return again! What the hotel did not offer: no breakfast in the morning, only coffee. Also, you'd have to drive a good 10-15minutes to get to a restaurant or grocery store. There was no restaurant or fast-food places nearby. But we didn't mind the drive, in exchange for a great place! We've stayed at many hotels and this one ranks at the top of our list! Hope this helps!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here over the weekend (March 24-27, 2006) and really liked this hotel. It's located in a quiet area of town yet close enough to gain access to the freeways. The staff was friendly, helpful, and accomodating. Our room was nice, clean, and comfortable. There was even free high-speed internet. Overall, we had a great time there and would return again! What the hotel did not offer: no breakfast in the morning, only coffee. Also, you'd have to drive a good 10-15minutes to get to a restaurant or grocery store. There was no restaurant or fast-food places nearby. But we didn't mind the drive, in exchange for a great place! We've stayed at many hotels and this one ranks at the top of our list! Hope this helps!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r3932345-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>3932345</t>
+  </si>
+  <si>
+    <t>09/21/2005</t>
+  </si>
+  <si>
+    <t>Recommended</t>
+  </si>
+  <si>
+    <t>Very good value (I stayed there for two nights on a weekend).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d83106-r3758270-TownePlace_Suites_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>3758270</t>
+  </si>
+  <si>
+    <t>08/11/2005</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for three nights in early August. We had booked it on Hotwire for $33 a night, and we weren't sure what type of bedding was going to be in the room (we needed two beds). When we contacted the hotel before arrival, they were very accomodating and said that they would make sure that there was either a sofabed or a rollaway in the room when we arrived. We ended up with a rollaway, and it was one of the most comfortable that we have ever used.Check-in went very smoothly, and we were given a studio room in the east building (there are two almost identical three-story buildings). The room had a kitchenette with an electric stove, microwave, and dishwasher. The room was very clean, and the bed was very comfortable. Housekeeping was decent. If you are staying for more than a week, they do a full clean once per week. Otherwise, they do a "touch-up" service (basically making the bed and cleaning the bathroom) every day.The pool area was also very nice. It even had a gas grill that we used one night to cook hamburgers. I really had no complaints about this hotel at all. If you can get it for the price we got it for on Hotwire, it is a real deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for three nights in early August. We had booked it on Hotwire for $33 a night, and we weren't sure what type of bedding was going to be in the room (we needed two beds). When we contacted the hotel before arrival, they were very accomodating and said that they would make sure that there was either a sofabed or a rollaway in the room when we arrived. We ended up with a rollaway, and it was one of the most comfortable that we have ever used.Check-in went very smoothly, and we were given a studio room in the east building (there are two almost identical three-story buildings). The room had a kitchenette with an electric stove, microwave, and dishwasher. The room was very clean, and the bed was very comfortable. Housekeeping was decent. If you are staying for more than a week, they do a full clean once per week. Otherwise, they do a "touch-up" service (basically making the bed and cleaning the bathroom) every day.The pool area was also very nice. It even had a gas grill that we used one night to cook hamburgers. I really had no complaints about this hotel at all. If you can get it for the price we got it for on Hotwire, it is a real deal.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2724,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2756,6291 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>168</v>
+      </c>
+      <c r="X16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>176</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>177</v>
+      </c>
+      <c r="X17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>209</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>218</v>
+      </c>
+      <c r="X22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>242</v>
+      </c>
+      <c r="X25" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>209</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>241</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>241</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>266</v>
+      </c>
+      <c r="X28" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>270</v>
+      </c>
+      <c r="J29" t="s">
+        <v>271</v>
+      </c>
+      <c r="K29" t="s">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s">
+        <v>273</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>274</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>266</v>
+      </c>
+      <c r="X29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>276</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" t="s">
+        <v>279</v>
+      </c>
+      <c r="L30" t="s">
+        <v>280</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>274</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>266</v>
+      </c>
+      <c r="X30" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" t="s">
+        <v>284</v>
+      </c>
+      <c r="K31" t="s">
+        <v>285</v>
+      </c>
+      <c r="L31" t="s">
+        <v>286</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>287</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>266</v>
+      </c>
+      <c r="X31" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>289</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>290</v>
+      </c>
+      <c r="J32" t="s">
+        <v>291</v>
+      </c>
+      <c r="K32" t="s">
+        <v>292</v>
+      </c>
+      <c r="L32" t="s">
+        <v>293</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>294</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>295</v>
+      </c>
+      <c r="X32" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>299</v>
+      </c>
+      <c r="J33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K33" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" t="s">
+        <v>302</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>303</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>304</v>
+      </c>
+      <c r="X33" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J34" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>312</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>313</v>
+      </c>
+      <c r="X34" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L35" t="s">
+        <v>320</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>312</v>
+      </c>
+      <c r="O35" t="s">
+        <v>209</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>321</v>
+      </c>
+      <c r="X35" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>324</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>325</v>
+      </c>
+      <c r="J36" t="s">
+        <v>326</v>
+      </c>
+      <c r="K36" t="s">
+        <v>327</v>
+      </c>
+      <c r="L36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>312</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>321</v>
+      </c>
+      <c r="X36" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>321</v>
+      </c>
+      <c r="X37" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>336</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>337</v>
+      </c>
+      <c r="J38" t="s">
+        <v>338</v>
+      </c>
+      <c r="K38" t="s">
+        <v>339</v>
+      </c>
+      <c r="L38" t="s">
+        <v>340</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>312</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>321</v>
+      </c>
+      <c r="X38" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>343</v>
+      </c>
+      <c r="J39" t="s">
+        <v>344</v>
+      </c>
+      <c r="K39" t="s">
+        <v>345</v>
+      </c>
+      <c r="L39" t="s">
+        <v>346</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>347</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>348</v>
+      </c>
+      <c r="X39" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>352</v>
+      </c>
+      <c r="J40" t="s">
+        <v>353</v>
+      </c>
+      <c r="K40" t="s">
+        <v>354</v>
+      </c>
+      <c r="L40" t="s">
+        <v>355</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>347</v>
+      </c>
+      <c r="O40" t="s">
+        <v>209</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>348</v>
+      </c>
+      <c r="X40" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>357</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>358</v>
+      </c>
+      <c r="J41" t="s">
+        <v>359</v>
+      </c>
+      <c r="K41" t="s">
+        <v>360</v>
+      </c>
+      <c r="L41" t="s">
+        <v>361</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>362</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>363</v>
+      </c>
+      <c r="X41" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>366</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>367</v>
+      </c>
+      <c r="J42" t="s">
+        <v>368</v>
+      </c>
+      <c r="K42" t="s">
+        <v>369</v>
+      </c>
+      <c r="L42" t="s">
+        <v>370</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>371</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>372</v>
+      </c>
+      <c r="X42" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>375</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>376</v>
+      </c>
+      <c r="J43" t="s">
+        <v>377</v>
+      </c>
+      <c r="K43" t="s">
+        <v>378</v>
+      </c>
+      <c r="L43" t="s">
+        <v>379</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>380</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>381</v>
+      </c>
+      <c r="X43" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>384</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>385</v>
+      </c>
+      <c r="J44" t="s">
+        <v>386</v>
+      </c>
+      <c r="K44" t="s">
+        <v>387</v>
+      </c>
+      <c r="L44" t="s">
+        <v>388</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>389</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>390</v>
+      </c>
+      <c r="X44" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>393</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>394</v>
+      </c>
+      <c r="J45" t="s">
+        <v>395</v>
+      </c>
+      <c r="K45" t="s">
+        <v>396</v>
+      </c>
+      <c r="L45" t="s">
+        <v>397</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>380</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>398</v>
+      </c>
+      <c r="X45" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>401</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>402</v>
+      </c>
+      <c r="J46" t="s">
+        <v>403</v>
+      </c>
+      <c r="K46" t="s">
+        <v>404</v>
+      </c>
+      <c r="L46" t="s">
+        <v>405</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>380</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>398</v>
+      </c>
+      <c r="X46" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>407</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>408</v>
+      </c>
+      <c r="J47" t="s">
+        <v>409</v>
+      </c>
+      <c r="K47" t="s">
+        <v>410</v>
+      </c>
+      <c r="L47" t="s">
+        <v>411</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>412</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>413</v>
+      </c>
+      <c r="X47" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>416</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>417</v>
+      </c>
+      <c r="J48" t="s">
+        <v>418</v>
+      </c>
+      <c r="K48" t="s">
+        <v>419</v>
+      </c>
+      <c r="L48" t="s">
+        <v>420</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>421</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>413</v>
+      </c>
+      <c r="X48" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>424</v>
+      </c>
+      <c r="J49" t="s">
+        <v>425</v>
+      </c>
+      <c r="K49" t="s">
+        <v>426</v>
+      </c>
+      <c r="L49" t="s">
+        <v>427</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>421</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>428</v>
+      </c>
+      <c r="X49" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>431</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>432</v>
+      </c>
+      <c r="J50" t="s">
+        <v>433</v>
+      </c>
+      <c r="K50" t="s">
+        <v>434</v>
+      </c>
+      <c r="L50" t="s">
+        <v>435</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>436</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>437</v>
+      </c>
+      <c r="X50" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>440</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>441</v>
+      </c>
+      <c r="J51" t="s">
+        <v>442</v>
+      </c>
+      <c r="K51" t="s">
+        <v>443</v>
+      </c>
+      <c r="L51" t="s">
+        <v>444</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>445</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>446</v>
+      </c>
+      <c r="X51" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>449</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>450</v>
+      </c>
+      <c r="J52" t="s">
+        <v>451</v>
+      </c>
+      <c r="K52" t="s">
+        <v>452</v>
+      </c>
+      <c r="L52" t="s">
+        <v>453</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>445</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>454</v>
+      </c>
+      <c r="X52" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>457</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>458</v>
+      </c>
+      <c r="J53" t="s">
+        <v>459</v>
+      </c>
+      <c r="K53" t="s">
+        <v>460</v>
+      </c>
+      <c r="L53" t="s">
+        <v>461</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>389</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>462</v>
+      </c>
+      <c r="X53" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>465</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>466</v>
+      </c>
+      <c r="J54" t="s">
+        <v>467</v>
+      </c>
+      <c r="K54" t="s">
+        <v>468</v>
+      </c>
+      <c r="L54" t="s">
+        <v>469</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>470</v>
+      </c>
+      <c r="O54" t="s">
+        <v>471</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>462</v>
+      </c>
+      <c r="X54" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>473</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>474</v>
+      </c>
+      <c r="J55" t="s">
+        <v>475</v>
+      </c>
+      <c r="K55" t="s">
+        <v>476</v>
+      </c>
+      <c r="L55" t="s">
+        <v>477</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>470</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>462</v>
+      </c>
+      <c r="X55" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>479</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>480</v>
+      </c>
+      <c r="J56" t="s">
+        <v>481</v>
+      </c>
+      <c r="K56" t="s">
+        <v>482</v>
+      </c>
+      <c r="L56" t="s">
+        <v>483</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>484</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>485</v>
+      </c>
+      <c r="X56" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>488</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>489</v>
+      </c>
+      <c r="J57" t="s">
+        <v>490</v>
+      </c>
+      <c r="K57" t="s">
+        <v>491</v>
+      </c>
+      <c r="L57" t="s">
+        <v>492</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>484</v>
+      </c>
+      <c r="O57" t="s">
+        <v>209</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>485</v>
+      </c>
+      <c r="X57" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>494</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>495</v>
+      </c>
+      <c r="J58" t="s">
+        <v>496</v>
+      </c>
+      <c r="K58" t="s">
+        <v>497</v>
+      </c>
+      <c r="L58" t="s">
+        <v>498</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>499</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>500</v>
+      </c>
+      <c r="X58" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>503</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>504</v>
+      </c>
+      <c r="J59" t="s">
+        <v>505</v>
+      </c>
+      <c r="K59" t="s">
+        <v>506</v>
+      </c>
+      <c r="L59" t="s">
+        <v>507</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>508</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>509</v>
+      </c>
+      <c r="X59" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>512</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>513</v>
+      </c>
+      <c r="J60" t="s">
+        <v>514</v>
+      </c>
+      <c r="K60" t="s">
+        <v>515</v>
+      </c>
+      <c r="L60" t="s">
+        <v>516</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>508</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>500</v>
+      </c>
+      <c r="X60" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>518</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>519</v>
+      </c>
+      <c r="J61" t="s">
+        <v>520</v>
+      </c>
+      <c r="K61" t="s">
+        <v>521</v>
+      </c>
+      <c r="L61" t="s">
+        <v>522</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>508</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>500</v>
+      </c>
+      <c r="X61" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>524</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>525</v>
+      </c>
+      <c r="J62" t="s">
+        <v>526</v>
+      </c>
+      <c r="K62" t="s">
+        <v>527</v>
+      </c>
+      <c r="L62" t="s">
+        <v>528</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>529</v>
+      </c>
+      <c r="X62" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>532</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>533</v>
+      </c>
+      <c r="J63" t="s">
+        <v>534</v>
+      </c>
+      <c r="K63" t="s">
+        <v>535</v>
+      </c>
+      <c r="L63" t="s">
+        <v>536</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>537</v>
+      </c>
+      <c r="O63" t="s">
+        <v>209</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>538</v>
+      </c>
+      <c r="X63" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>541</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>542</v>
+      </c>
+      <c r="J64" t="s">
+        <v>543</v>
+      </c>
+      <c r="K64" t="s">
+        <v>544</v>
+      </c>
+      <c r="L64" t="s">
+        <v>545</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>546</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>547</v>
+      </c>
+      <c r="X64" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>550</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>551</v>
+      </c>
+      <c r="J65" t="s">
+        <v>552</v>
+      </c>
+      <c r="K65" t="s">
+        <v>553</v>
+      </c>
+      <c r="L65" t="s">
+        <v>554</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>555</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>547</v>
+      </c>
+      <c r="X65" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>557</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>558</v>
+      </c>
+      <c r="J66" t="s">
+        <v>559</v>
+      </c>
+      <c r="K66" t="s">
+        <v>560</v>
+      </c>
+      <c r="L66" t="s">
+        <v>561</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>562</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>563</v>
+      </c>
+      <c r="X66" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>566</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>567</v>
+      </c>
+      <c r="J67" t="s">
+        <v>568</v>
+      </c>
+      <c r="K67" t="s">
+        <v>569</v>
+      </c>
+      <c r="L67" t="s">
+        <v>570</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>562</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>571</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>572</v>
+      </c>
+      <c r="J68" t="s">
+        <v>573</v>
+      </c>
+      <c r="K68" t="s">
+        <v>574</v>
+      </c>
+      <c r="L68" t="s">
+        <v>575</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>576</v>
+      </c>
+      <c r="O68" t="s">
+        <v>62</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>577</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>578</v>
+      </c>
+      <c r="J69" t="s">
+        <v>579</v>
+      </c>
+      <c r="K69" t="s">
+        <v>580</v>
+      </c>
+      <c r="L69" t="s">
+        <v>581</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>576</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>582</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>583</v>
+      </c>
+      <c r="J70" t="s">
+        <v>584</v>
+      </c>
+      <c r="K70" t="s">
+        <v>585</v>
+      </c>
+      <c r="L70" t="s">
+        <v>586</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>576</v>
+      </c>
+      <c r="O70" t="s">
+        <v>209</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>588</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>589</v>
+      </c>
+      <c r="J71" t="s">
+        <v>590</v>
+      </c>
+      <c r="K71" t="s">
+        <v>591</v>
+      </c>
+      <c r="L71" t="s">
+        <v>592</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>593</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>594</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>595</v>
+      </c>
+      <c r="J72" t="s">
+        <v>596</v>
+      </c>
+      <c r="K72" t="s">
+        <v>597</v>
+      </c>
+      <c r="L72" t="s">
+        <v>598</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>599</v>
+      </c>
+      <c r="O72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>600</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>601</v>
+      </c>
+      <c r="J73" t="s">
+        <v>602</v>
+      </c>
+      <c r="K73" t="s">
+        <v>603</v>
+      </c>
+      <c r="L73" t="s">
+        <v>604</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>599</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>606</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>607</v>
+      </c>
+      <c r="J74" t="s">
+        <v>608</v>
+      </c>
+      <c r="K74" t="s">
+        <v>609</v>
+      </c>
+      <c r="L74" t="s">
+        <v>610</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>611</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>612</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>613</v>
+      </c>
+      <c r="J75" t="s">
+        <v>614</v>
+      </c>
+      <c r="K75" t="s">
+        <v>615</v>
+      </c>
+      <c r="L75" t="s">
+        <v>616</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>617</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>618</v>
+      </c>
+      <c r="J76" t="s">
+        <v>619</v>
+      </c>
+      <c r="K76" t="s">
+        <v>620</v>
+      </c>
+      <c r="L76" t="s">
+        <v>621</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>622</v>
+      </c>
+      <c r="O76" t="s">
+        <v>62</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>623</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>624</v>
+      </c>
+      <c r="J77" t="s">
+        <v>625</v>
+      </c>
+      <c r="K77" t="s">
+        <v>626</v>
+      </c>
+      <c r="L77" t="s">
+        <v>627</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>628</v>
+      </c>
+      <c r="O77" t="s">
+        <v>62</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>630</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>631</v>
+      </c>
+      <c r="J78" t="s">
+        <v>632</v>
+      </c>
+      <c r="K78" t="s">
+        <v>633</v>
+      </c>
+      <c r="L78" t="s">
+        <v>634</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>628</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>635</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>636</v>
+      </c>
+      <c r="J79" t="s">
+        <v>637</v>
+      </c>
+      <c r="K79" t="s">
+        <v>638</v>
+      </c>
+      <c r="L79" t="s">
+        <v>639</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>640</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>641</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>642</v>
+      </c>
+      <c r="J80" t="s">
+        <v>643</v>
+      </c>
+      <c r="K80" t="s">
+        <v>644</v>
+      </c>
+      <c r="L80" t="s">
+        <v>645</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>640</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>647</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>648</v>
+      </c>
+      <c r="J81" t="s">
+        <v>649</v>
+      </c>
+      <c r="K81" t="s">
+        <v>650</v>
+      </c>
+      <c r="L81" t="s">
+        <v>651</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>652</v>
+      </c>
+      <c r="O81" t="s">
+        <v>209</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>654</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>655</v>
+      </c>
+      <c r="J82" t="s">
+        <v>656</v>
+      </c>
+      <c r="K82" t="s">
+        <v>657</v>
+      </c>
+      <c r="L82" t="s">
+        <v>658</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>659</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>660</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>661</v>
+      </c>
+      <c r="J83" t="s">
+        <v>662</v>
+      </c>
+      <c r="K83" t="s">
+        <v>663</v>
+      </c>
+      <c r="L83" t="s">
+        <v>664</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>665</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>666</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>667</v>
+      </c>
+      <c r="J84" t="s">
+        <v>662</v>
+      </c>
+      <c r="K84" t="s">
+        <v>668</v>
+      </c>
+      <c r="L84" t="s">
+        <v>669</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>665</v>
+      </c>
+      <c r="O84" t="s">
+        <v>71</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>671</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>672</v>
+      </c>
+      <c r="J85" t="s">
+        <v>673</v>
+      </c>
+      <c r="K85" t="s">
+        <v>674</v>
+      </c>
+      <c r="L85" t="s">
+        <v>675</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>676</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>677</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>678</v>
+      </c>
+      <c r="J86" t="s">
+        <v>679</v>
+      </c>
+      <c r="K86" t="s">
+        <v>680</v>
+      </c>
+      <c r="L86" t="s">
+        <v>681</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>682</v>
+      </c>
+      <c r="O86" t="s">
+        <v>71</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>683</v>
+      </c>
+      <c r="X86" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>686</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>687</v>
+      </c>
+      <c r="J87" t="s">
+        <v>688</v>
+      </c>
+      <c r="K87" t="s">
+        <v>689</v>
+      </c>
+      <c r="L87" t="s">
+        <v>690</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>682</v>
+      </c>
+      <c r="O87" t="s">
+        <v>62</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>692</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>693</v>
+      </c>
+      <c r="J88" t="s">
+        <v>694</v>
+      </c>
+      <c r="K88" t="s">
+        <v>695</v>
+      </c>
+      <c r="L88" t="s">
+        <v>696</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>697</v>
+      </c>
+      <c r="O88" t="s">
+        <v>71</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>698</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>699</v>
+      </c>
+      <c r="J89" t="s">
+        <v>700</v>
+      </c>
+      <c r="K89" t="s">
+        <v>701</v>
+      </c>
+      <c r="L89" t="s">
+        <v>702</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>703</v>
+      </c>
+      <c r="O89" t="s">
+        <v>471</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>705</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>706</v>
+      </c>
+      <c r="J90" t="s">
+        <v>707</v>
+      </c>
+      <c r="K90" t="s">
+        <v>708</v>
+      </c>
+      <c r="L90" t="s">
+        <v>709</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>710</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>712</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>713</v>
+      </c>
+      <c r="J91" t="s">
+        <v>714</v>
+      </c>
+      <c r="K91" t="s">
+        <v>715</v>
+      </c>
+      <c r="L91" t="s">
+        <v>716</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>717</v>
+      </c>
+      <c r="O91" t="s">
+        <v>209</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>719</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>720</v>
+      </c>
+      <c r="J92" t="s">
+        <v>721</v>
+      </c>
+      <c r="K92" t="s">
+        <v>722</v>
+      </c>
+      <c r="L92" t="s">
+        <v>723</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>724</v>
+      </c>
+      <c r="O92" t="s">
+        <v>71</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>725</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>726</v>
+      </c>
+      <c r="J93" t="s">
+        <v>727</v>
+      </c>
+      <c r="K93" t="s">
+        <v>728</v>
+      </c>
+      <c r="L93" t="s">
+        <v>729</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>730</v>
+      </c>
+      <c r="O93" t="s">
+        <v>62</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>732</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>733</v>
+      </c>
+      <c r="J94" t="s">
+        <v>734</v>
+      </c>
+      <c r="K94" t="s">
+        <v>735</v>
+      </c>
+      <c r="L94" t="s">
+        <v>736</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>737</v>
+      </c>
+      <c r="O94" t="s">
+        <v>71</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>738</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>739</v>
+      </c>
+      <c r="J95" t="s">
+        <v>740</v>
+      </c>
+      <c r="K95" t="s">
+        <v>741</v>
+      </c>
+      <c r="L95" t="s">
+        <v>742</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>744</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>745</v>
+      </c>
+      <c r="J96" t="s">
+        <v>746</v>
+      </c>
+      <c r="K96" t="s">
+        <v>747</v>
+      </c>
+      <c r="L96" t="s">
+        <v>748</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>34808</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>749</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>750</v>
+      </c>
+      <c r="J97" t="s">
+        <v>751</v>
+      </c>
+      <c r="K97" t="s">
+        <v>752</v>
+      </c>
+      <c r="L97" t="s">
+        <v>753</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
